--- a/Processos.xlsx
+++ b/Processos.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="217">
+  <si>
+    <t>Processo</t>
+  </si>
+  <si>
+    <t>Participantes</t>
+  </si>
   <si>
     <t>Processo Nº ATOrd-0001590-49.2013.5.03.0001 $$ 10625</t>
   </si>
   <si>
-    <t>--------------------------------------------------------------------------------</t>
+    <t>Processo----------------------------------------------------------------------</t>
   </si>
   <si>
     <t>Processo Nº ATOrd-0010294-43.2016.5.03.0002 $$ 11565</t>
@@ -164,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">INTERESSADOMARCO ANTONIO BARBOSA OLIVEIRA JUNIOR   </t>
+  </si>
+  <si>
+    <t>Participantes----------------------------------------------------------------------</t>
   </si>
   <si>
     <t xml:space="preserve">AUTOR JOSE VENCESLAU CIRIACO </t>
@@ -1020,1875 +1029,1875 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B100" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B101" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B118" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B119" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B120" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B123" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B124" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B125" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B126" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B127" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B128" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B131" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B132" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B133" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B135" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B137" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B139" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B140" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B141" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B143" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B144" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B145" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B146" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B147" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B148" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B149" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B150" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B151" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B152" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B153" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B154" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B155" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B156" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B157" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B158" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B161" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B162" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B163" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B166" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B167" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B168" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B169" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B170" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B171" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B172" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B173" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B175" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B176" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B177" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B178" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B179" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B180" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B181" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B182" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B183" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B184" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B185" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B186" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B187" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B188" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B189" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B190" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B191" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B192" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B193" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B194" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B195" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B196" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B197" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B198" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B199" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B200" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B201" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B202" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B203" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B204" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B205" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B206" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B207" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B208" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B209" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B210" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B211" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B212" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B213" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B214" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B215" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B216" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B217" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B218" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B219" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B220" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B221" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B222" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B223" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B224" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B225" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B226" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B227" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B228" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B229" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B230" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B231" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B232" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B233" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B234" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Processos.xlsx
+++ b/Processos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="454">
   <si>
     <t>Processo</t>
   </si>
@@ -151,6 +151,141 @@
     <t>Processo Nº ATOrd-0010750-71.2018.5.03.0018 $$ 110167</t>
   </si>
   <si>
+    <t>Processo Nº ATOrd-0010154-14.2023.5.03.0018 $$ 112514</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010806-67.2022.5.03.0179 $$ 112840</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010175-87.2023.5.03.0018 $$ 113548</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010173-20.2023.5.03.0018 $$ 113623</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010170-65.2023.5.03.0018 $$ 113770</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010178-42.2023.5.03.0018 $$ 114046</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0156100-73.2007.5.03.0019 $$ 116148</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0163400-18.2009.5.03.0019 $$ 116230</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0000975-10.2010.5.03.0019 $$ 120005</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0001978-60.2011.5.03.0020 $$ 120525</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0120100-28.1994.5.03.0020 $$ 120739</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010179-21.2023.5.03.0020 $$ 120912</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0000317-04.2015.5.03.0021 $$ 121463</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010048-43.2023.5.03.0021 $$ 123353</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010400-40.2019.5.03.0021 $$ 126649</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010103-91.2023.5.03.0021 $$ 130126</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010172-14.2023.5.03.0025 $$ 133746</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010156-93.2023.5.03.0111 $$ 140545</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010192-08.2023.5.03.0024 $$ 141299</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010115-93.2023.5.03.0025 $$ 148619</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0000951-22.2014.5.03.0025 $$ 153357</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010643-23.2019.5.03.0105 $$ 168326</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010126-54.2015.5.03.0106 $$ 170747</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010193-38.2023.5.03.0106 $$ 171320</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0000528-13.2014.5.03.0106 $$ 174113</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010869-22.2019.5.03.0107 $$ 174692</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010040-96.2023.5.03.0108 $$ 174777</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010025-30.2023.5.03.0108 $$ 174803</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010175-24.2023.5.03.0136 $$ 176120</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010178-60.2023.5.03.0109 $$ 177586</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0011011-15.2022.5.03.0109 $$ 183159</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010015-80.2023.5.03.0109 $$ 185133</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0030700-75.2004.5.03.0109 $$ 185752</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0002303-59.2011.5.03.0109 $$ 186037</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010710-44.2017.5.03.0109 $$ 187180</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010505-07.2020.5.03.0110 $$ 188544</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0000100-87.2012.5.03.0110 $$ 189204</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010171-65.2023.5.03.0110 $$ 189878</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010181-09.2023.5.03.0111 $$ 194883</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010180-24.2023.5.03.0111 $$ 194973</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010608-37.2022.5.03.0112 $$ 195218</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010187-13.2023.5.03.0112 $$ 196174</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010188-95.2023.5.03.0112 $$ 197343</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010731-32.2022.5.03.0113 $$ 198292</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010190-62.2023.5.03.0113AUTOR GLEISON ANGELO DOMINGUES DE $$ 199005</t>
+  </si>
+  <si>
     <t xml:space="preserve">AUTOR LEANDRO SOUZA GOMES </t>
   </si>
   <si>
@@ -665,6 +800,582 @@
   </si>
   <si>
     <t xml:space="preserve">INTERESSADOINSTITUTO NACIONAL DE PREVIDÊNCIA SOCIAL (INSS)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ARI ELISEI VILELA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO RENATO VICTOR AMARAL(OAB: 316922/SP) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CAPGEMINI BRASIL S/A   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MIQUELINE DO NASCIMENTO VARELA NEVES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO CLAUDIA PEIXOTO DE AZEVEDO SILVA(OAB: 159402/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ROBERT ZANANDREIZ DE MATTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU J.M SERVICOS AEREOS LTDA - ME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU GUSTAVO ALVES SOARES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CONCEICAO ROSA DA SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MARCUS LEANDRO LOPES DA SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CONSTRUTORA ALVES LTDA. - EPP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PHILLIP MATIAS ZANANDREIZ SALAZAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ANDRE FILIPE CARVALHO MATTOS   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR JEFFERSON LUIZ FREIRE SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO DIANA CLAUDINO EUSTAQUIO(OAB: 156262/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU INFRAREDES - INFRAESTRUTURA E REDES DE TELECOMUNICACOES LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CLARO S.A.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR VANIA MENDES PIRES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ACAO CONTACT CENTER EIRELI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU BANCO LOSANGO S.A. - BANCO MULTIPLO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU BANCO BRADESCO S.A.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR BARBARA TAIS MORAIS ALVES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ALFRED GIMPEL MOREIRA PINTO(OAB: 217884/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CEDOC - GESTAO DE DOCUMENTOS, ARQUIVOS E INFORMACOES LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ICARO GABRIEL FERREIRA DE SOUZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO BRENO HAROLDO RIBEIRO DE OLIVEIRA(OAB: 134890/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ALEXANDRE HERMENEGILDO MATEUS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ARTE CRIAR MOVEIS E INTERIORES LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MIGUEL ALVES COSTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ALOIZIO JOSE DE CARVALHO(OAB: 46462/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU VICENTE DOROTEU DOS SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ATLAN SERVICOS LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TIAGO GLICERIO DOS SANTOS   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR GENIVAL MANOEL DOS SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO JOSE GUMERCINDO VILELA(OAB: 45351/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU LAR MINAS ENGENHARIA LTDA - EPP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU LEANDRO ATILIO RODRIGUES   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR CLAUDIO DA SILVA ALMEIDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO PAULO SANDERSON GIL NUNES(OAB: 38562/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ADERLAINE AUGUSTA DE OLIVEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MARIA LUIZA DA CONCEICAO OLIVEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU INICIATIVA EMPREENDIMENTOS E SERVICOS LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MARCELINO BATISTA DA SILVA Código para aferir autenticidade deste caderno: 1972303681/2023 Tribunal Regional do Trabalho da 3ª Região 3360 Data da Disponibilização: Segunda-feira, 13 de Março de 2023   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO SAMUEL SILVA FONSECA(OAB: 129986/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU RRJ TRANSPORTE DE VALORES, SEGURANCA E VIGILANCIA LTDA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TRANSSAFE TRANSPORTE DE VALORES E SEGURANCA PATRIMONIAL LTDA - ME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU EMBRAFORTE SEGURANCA E TRANSPORTE DE VALORES LTDA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MARCOS FELIPE GONCALVES DE VILHENA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MARCOS ANDRE PAES DE VILHENA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PEDRO HENRIQUE GONCALVES DE VILHENA TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADODETRAN SP   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MARIA GUEDES DA LUZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO FELIPE MAURICIO SALIBA DE SOUZA(OAB: 108211/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SILVIO BUFONI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CARLOS JORGE MOREIRA DE SOUZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ROGERIO DE CARVALHO NOGUEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU RIOFORTE SERVICOS TECNICOS S/A TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOServiço Registral do 11º Ofício de Registro de Imóveis   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR LEONARDO HENRIQUE DA SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU S.E.S. SISTEMAS ELETRONICOS LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PLANTAO SERVICOS DE VIGILANCIA LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CONSERVO SERVICOS GERAIS LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR THAIS DE MELO FRANCO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO Alisson Wagner Ferreira(OAB: 113363/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MASTER BRASIL S.A.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR DANIEL LAURISTON DA CUNHA PEREIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO EDUARDO HENRIQUE DA SILVA CASTRO(OAB: 108893/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TURILESSA LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR SILVIA OLIVEIRA MOTIN INACIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO MARCOS AURELIO ROCHA PEREIRA DORNELAS(OAB: 167926/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MUNICIPIO DE BELO HORIZONTE TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR BARBARA CRISTINA ZUBA SOARES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO Rosemberg Chaefer Nascimento Silva(OAB: 109135/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PATRICIA VALERIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU RIO ZONA SUL CLINICA ODONTOLOGICA LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MARCELO FERREIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU RODRIGO VALERIO COSTA PEDRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU RIZZO CLINICA ODONTOLOGICA LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU LUIZ RAFAEL CAMPOS MAGALHAES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU LOCKE SERVICOS ODONTOLOGICOS LTDA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SAVOY SERVICOS DE DIAGNOSTICOS LTDA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PW INSTITUTO DE ODONTOLOGIA LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU DANIELLE PENA DUARTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ATLAS FRANQUIAS EIRELI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TECNOLOGIA E ARTE PROTESE ODONTOLOGICA LTDA - EPP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SERVE MINAS SERVICOS GERAIS LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PAULO HENRIQUE RODRIGUES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU EUGENIO JORGE FERREIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU BMVF FRANCHISING E PARTICIPACOES LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU RENATO COSTA FRANCO BALDAN   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR SIDNEI DELFINO DOS SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO JANAINA OLIVIA CASTELAR DE PAULA(OAB: 117969/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU VLI MULTIMODAL S.A. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU FERROVIA CENTRO-ATLANTICA S.A  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR CAMILA JARDIM GONCALVES DOS SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ISABELLA SANGLARD PIMENTA MACHADO(OAB: 104778/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR VIVIANE MARIA COSTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ERNANE EUSTAQUIO DOS SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO FELIPE CAMPOS MUZZI(OAB: 111498/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ULTRA INFINITY TRANSPORTES EIRELI   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR FRANCISCO DE ASSIS ALMEIDA NUNES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU IPEC - INDUSTRIA DE PERFUMES E COSMETICOS LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU L.A.M. PERFUMES E COSMETICOS LTDA - EPP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU LEOPOLDO MESQUITA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO MARCOS JOSE RODRIGUES(OAB: 57915/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SOFCON - SOCIEDADE FRANCHISING &amp; CONSULTORIA LTDA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MILLENNIUM - COMERCIO DE PERFUMES LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MARLENE GEISA VILLANI MESQUITA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MIRTES NASCIMENTO BARBOSA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU LEOPOLDO MESQUITA FILHO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERITO MIGUEL FERNANDO BARBOSA SILVA TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MARIA GERALDA DA SILVA MARTINS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO MARCOS AURELIO ROCHA PEREIRA DORNELAS(OAB: 167926/MG) Código para aferir autenticidade deste caderno: 1972303681/2023 Tribunal Regional do Trabalho da 3ª Região 3884 Data da Disponibilização: Segunda-feira, 13 de Março de 2023   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR LORENNA MEIRA DE ALVARENGA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO AIRTON DELCIO ELER JUNIOR(OAB: 108606/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PAULO GUILHERME ALVARES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU BIG-GRANDES IDEIAS LTDA TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOCARTÓRIO DE REGISTRO DE IMÓVEIS DE ITABIRITO MG ARREMATANTE MARCO ANTONIO ANDERE TEIXEIRA   </t>
+  </si>
+  <si>
+    <t>AUTOR HELEN CRISTINA VIEIRA DE ASSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ANTONIO TEIXEIRA BERTANI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO BRUNO ROBERTO PRATES SILVA(OAB: 140500/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU RANAEL SERVICOS EIRELI - ME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR JULIO CESAR DOS SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO DARLENE MORAIS ASFORA(OAB: 62510/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR DEIVID BAUER GONCALVES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO RUBEM RIBEIRO NETO(OAB: 118475/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SETELOC LTDA - ME   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR FERNANDO FERREIRA PIMENTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO BRUNO VINICIUS DOS SANTOS(OAB: 193197/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TUPI REBOQUE E TRANSPORTES LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR KILDARE GODINHO DE SA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO LEONARDO DAVID BRAGA DOS SANTOS(OAB: 149502/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR VANDERLI GOMES DA SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ATILA ANERES DA SILVA(OAB: 64934/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU BR MINERAIS COMERCIO DE PRODUTOS E EXTRACAO MINERAL LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR LUCILENE DOS SANTOS CRUZ RODRIGUES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ANTONIO RAIMUNDO DE CASTRO QUEIROZ JUNIOR(OAB: 94392/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TURQUEZA TECIDOS E VESTUARIOS S/A   Código para aferir autenticidade deste caderno: 1972303681/2023 Tribunal Regional do Trabalho da 3ª Região 4042 Data da Disponibilização: Segunda-feira, 13 de Março de 2023   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR PAULO ROBERTO CARAM PATRUS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO FREDERICO POLTRONIERI ANDRADE CRUZ(OAB: 150601/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CAIXA ECONOMICA FEDERAL   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ELISANGELA MARIA DE JESUS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ROBERTO BARRA(OAB: 47868/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MARIA GENY UTSCH DE CASTRO ARAUJO   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ELIZETE LELIS DE OLIVEIRA FELIX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ARI DE ALMEIDA FILHO(OAB: 25950/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU JOELMA DUARTE DE OLIVEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU UNIVERSO SERVICOS E ASSESSORIA EMPRESARIAL LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MARILIA DOS SANTOS DE SOUZA PAULA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO DANILO FELICIO GONÇALVES FERREIRA(OAB: 108729/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU JOSE ARISTON MACHADO SANTIAGO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU HELOISA MACHADO SANTIAGO TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOVISA DO BRASIL EMPREENDIMENTOS LTDA TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOITAU UNIBANCO S.A. TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOAMERICAN EXPRESS BRASIL ASSESSORIA EMPRESARIAL LTDA. TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOMASTERCARD BRASIL LTDA TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOBANCO CREDICARD S.A. TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOBANCO BRADESCO S.A.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR CARLOS EDUARDO DA SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO BRUNO EDUARDO MARTINS TAVARES(OAB: 118883/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MUNICIPIO DE BELO HORIZONTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERITO LEONARDO ROSSI   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MARIA DE FATIMA XAVIER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MINAS FORTE SEGURANCA E VIGILANCIA LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR VIRGINIA DIAS DE SOUZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MAGNO LUIZ VENANCIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO SAULO MOREIRA GROSSI(OAB: 106437/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ROUXINOL VIAGENS E TURISMO LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR DEILSON SOUZA DE OLIVEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO SAMUEL DIAS DE MOURA(OAB: 168718/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU BANCO DO BRASIL SA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU FORTEBANCO VIGILANCIA E SEGURANCA LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU BANCO BRADESCO S.A. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU VANESSA AVELINO VIEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU LAURENCE GUSTAVO PINTO NETO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TECNOLOGIA BANCARIA S.A. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU FIDELYS SEGURANCA PRIVADA E TRANSPORTE DE VALORES LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU EDSON PINTO NETO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU FORTEBANCO ADMINISTRACAO DE SERVICOS LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR VALDIVINA RODRIGUES NUNES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ARIANE APARECIDA DE OLIVEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MARIA APARECIDA CRUZ   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR WARLEY BATISTA DE CARVALHO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ANJOS DA GUARDA SEGURANCA E VIGILANCIA LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR INGRID DA CRUZ SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO PATRICIA AFONSO PEDRAS(OAB: 109939/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CASA FUNDAMENTAL EIRELI   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ENI DAS DORES NICACIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO JONAS JOSE FERNANDES(OAB: 108084/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MERCEARIA E PADARIA WM LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO FABIO JORGE BOUERE DAHER(OAB: 96158/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SECTOR TECNOLOGIA EM SERVICOS LTDA.   </t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B234"/>
+  <dimension ref="A1:B497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1041,7 +1752,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1049,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1057,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1065,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1073,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1081,7 +1792,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1089,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1097,7 +1808,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1105,7 +1816,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1113,7 +1824,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1121,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1129,7 +1840,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1137,7 +1848,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1145,7 +1856,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1153,7 +1864,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1161,7 +1872,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1169,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1177,7 +1888,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1185,7 +1896,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1193,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1201,7 +1912,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1209,7 +1920,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1217,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1225,7 +1936,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1233,7 +1944,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1241,7 +1952,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1249,7 +1960,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1257,7 +1968,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1265,7 +1976,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1273,7 +1984,7 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1281,7 +1992,7 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1289,7 +2000,7 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1297,7 +2008,7 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1305,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1313,7 +2024,7 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1321,7 +2032,7 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1329,7 +2040,7 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1337,7 +2048,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1345,7 +2056,7 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1353,7 +2064,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1361,7 +2072,7 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1369,7 +2080,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1377,7 +2088,7 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1385,7 +2096,7 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1393,7 +2104,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1401,7 +2112,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1409,7 +2120,7 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1417,7 +2128,7 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1425,7 +2136,7 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1433,7 +2144,7 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1441,7 +2152,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1449,7 +2160,7 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1457,7 +2168,7 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1465,7 +2176,7 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1473,7 +2184,7 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1481,7 +2192,7 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1489,7 +2200,7 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1497,7 +2208,7 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1505,7 +2216,7 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1513,7 +2224,7 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1521,7 +2232,7 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1529,7 +2240,7 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1537,7 +2248,7 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1545,7 +2256,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1553,7 +2264,7 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1561,7 +2272,7 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1569,7 +2280,7 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1577,7 +2288,7 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1585,7 +2296,7 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1593,7 +2304,7 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1601,7 +2312,7 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1609,7 +2320,7 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1617,7 +2328,7 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1625,7 +2336,7 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1633,7 +2344,7 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1641,7 +2352,7 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1649,7 +2360,7 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1657,7 +2368,7 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1665,7 +2376,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1673,7 +2384,7 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1681,7 +2392,7 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1689,7 +2400,7 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1697,7 +2408,7 @@
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1705,7 +2416,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1713,7 +2424,7 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1721,7 +2432,7 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1729,7 +2440,7 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1737,7 +2448,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1745,7 +2456,7 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1753,7 +2464,7 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1761,7 +2472,7 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1769,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1777,7 +2488,7 @@
         <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1785,7 +2496,7 @@
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1793,7 +2504,7 @@
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1801,7 +2512,7 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1809,7 +2520,7 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1817,7 +2528,7 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1825,7 +2536,7 @@
         <v>18</v>
       </c>
       <c r="B100" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1833,7 +2544,7 @@
         <v>18</v>
       </c>
       <c r="B101" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1841,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1849,7 +2560,7 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1857,7 +2568,7 @@
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1865,7 +2576,7 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1873,7 +2584,7 @@
         <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1881,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1889,7 +2600,7 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1897,7 +2608,7 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1905,7 +2616,7 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1913,7 +2624,7 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1921,7 +2632,7 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1929,7 +2640,7 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1937,7 +2648,7 @@
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1945,7 +2656,7 @@
         <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1953,7 +2664,7 @@
         <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1961,7 +2672,7 @@
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1969,7 +2680,7 @@
         <v>22</v>
       </c>
       <c r="B118" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1977,7 +2688,7 @@
         <v>22</v>
       </c>
       <c r="B119" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1985,7 +2696,7 @@
         <v>22</v>
       </c>
       <c r="B120" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1993,7 +2704,7 @@
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2001,7 +2712,7 @@
         <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2009,7 +2720,7 @@
         <v>23</v>
       </c>
       <c r="B123" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2017,7 +2728,7 @@
         <v>23</v>
       </c>
       <c r="B124" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2025,7 +2736,7 @@
         <v>23</v>
       </c>
       <c r="B125" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2033,7 +2744,7 @@
         <v>23</v>
       </c>
       <c r="B126" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2041,7 +2752,7 @@
         <v>23</v>
       </c>
       <c r="B127" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2049,7 +2760,7 @@
         <v>23</v>
       </c>
       <c r="B128" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2057,7 +2768,7 @@
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2065,7 +2776,7 @@
         <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2073,7 +2784,7 @@
         <v>24</v>
       </c>
       <c r="B131" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2081,7 +2792,7 @@
         <v>24</v>
       </c>
       <c r="B132" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2089,7 +2800,7 @@
         <v>24</v>
       </c>
       <c r="B133" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2097,7 +2808,7 @@
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2105,7 +2816,7 @@
         <v>25</v>
       </c>
       <c r="B135" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2113,7 +2824,7 @@
         <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2121,7 +2832,7 @@
         <v>25</v>
       </c>
       <c r="B137" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2129,7 +2840,7 @@
         <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2137,7 +2848,7 @@
         <v>26</v>
       </c>
       <c r="B139" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2145,7 +2856,7 @@
         <v>26</v>
       </c>
       <c r="B140" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2153,7 +2864,7 @@
         <v>26</v>
       </c>
       <c r="B141" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2161,7 +2872,7 @@
         <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2169,7 +2880,7 @@
         <v>27</v>
       </c>
       <c r="B143" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2177,7 +2888,7 @@
         <v>27</v>
       </c>
       <c r="B144" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2185,7 +2896,7 @@
         <v>27</v>
       </c>
       <c r="B145" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2193,7 +2904,7 @@
         <v>27</v>
       </c>
       <c r="B146" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2201,7 +2912,7 @@
         <v>27</v>
       </c>
       <c r="B147" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2209,7 +2920,7 @@
         <v>27</v>
       </c>
       <c r="B148" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2217,7 +2928,7 @@
         <v>3</v>
       </c>
       <c r="B149" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2225,7 +2936,7 @@
         <v>28</v>
       </c>
       <c r="B150" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2233,7 +2944,7 @@
         <v>28</v>
       </c>
       <c r="B151" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2241,7 +2952,7 @@
         <v>28</v>
       </c>
       <c r="B152" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2249,7 +2960,7 @@
         <v>28</v>
       </c>
       <c r="B153" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2257,7 +2968,7 @@
         <v>28</v>
       </c>
       <c r="B154" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2265,7 +2976,7 @@
         <v>28</v>
       </c>
       <c r="B155" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2273,7 +2984,7 @@
         <v>3</v>
       </c>
       <c r="B156" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2281,7 +2992,7 @@
         <v>29</v>
       </c>
       <c r="B157" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2289,7 +3000,7 @@
         <v>29</v>
       </c>
       <c r="B158" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2297,7 +3008,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2305,7 +3016,7 @@
         <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2313,7 +3024,7 @@
         <v>30</v>
       </c>
       <c r="B161" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2321,7 +3032,7 @@
         <v>30</v>
       </c>
       <c r="B162" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2329,7 +3040,7 @@
         <v>30</v>
       </c>
       <c r="B163" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2337,7 +3048,7 @@
         <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2345,7 +3056,7 @@
         <v>31</v>
       </c>
       <c r="B165" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2353,7 +3064,7 @@
         <v>31</v>
       </c>
       <c r="B166" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2361,7 +3072,7 @@
         <v>31</v>
       </c>
       <c r="B167" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2369,7 +3080,7 @@
         <v>31</v>
       </c>
       <c r="B168" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2377,7 +3088,7 @@
         <v>31</v>
       </c>
       <c r="B169" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2385,7 +3096,7 @@
         <v>31</v>
       </c>
       <c r="B170" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2393,7 +3104,7 @@
         <v>3</v>
       </c>
       <c r="B171" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2401,7 +3112,7 @@
         <v>32</v>
       </c>
       <c r="B172" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2409,7 +3120,7 @@
         <v>32</v>
       </c>
       <c r="B173" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2417,7 +3128,7 @@
         <v>32</v>
       </c>
       <c r="B174" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2425,7 +3136,7 @@
         <v>3</v>
       </c>
       <c r="B175" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2433,7 +3144,7 @@
         <v>33</v>
       </c>
       <c r="B176" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2441,7 +3152,7 @@
         <v>33</v>
       </c>
       <c r="B177" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2449,7 +3160,7 @@
         <v>33</v>
       </c>
       <c r="B178" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2457,7 +3168,7 @@
         <v>33</v>
       </c>
       <c r="B179" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2465,7 +3176,7 @@
         <v>33</v>
       </c>
       <c r="B180" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2473,7 +3184,7 @@
         <v>33</v>
       </c>
       <c r="B181" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2481,7 +3192,7 @@
         <v>3</v>
       </c>
       <c r="B182" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2489,7 +3200,7 @@
         <v>34</v>
       </c>
       <c r="B183" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2497,7 +3208,7 @@
         <v>34</v>
       </c>
       <c r="B184" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2505,7 +3216,7 @@
         <v>34</v>
       </c>
       <c r="B185" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2513,7 +3224,7 @@
         <v>34</v>
       </c>
       <c r="B186" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2521,7 +3232,7 @@
         <v>34</v>
       </c>
       <c r="B187" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2529,7 +3240,7 @@
         <v>3</v>
       </c>
       <c r="B188" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2537,7 +3248,7 @@
         <v>35</v>
       </c>
       <c r="B189" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2545,7 +3256,7 @@
         <v>35</v>
       </c>
       <c r="B190" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2553,7 +3264,7 @@
         <v>35</v>
       </c>
       <c r="B191" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2561,7 +3272,7 @@
         <v>35</v>
       </c>
       <c r="B192" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2569,7 +3280,7 @@
         <v>35</v>
       </c>
       <c r="B193" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2577,7 +3288,7 @@
         <v>3</v>
       </c>
       <c r="B194" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2585,7 +3296,7 @@
         <v>36</v>
       </c>
       <c r="B195" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2593,7 +3304,7 @@
         <v>36</v>
       </c>
       <c r="B196" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2601,7 +3312,7 @@
         <v>36</v>
       </c>
       <c r="B197" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2609,7 +3320,7 @@
         <v>36</v>
       </c>
       <c r="B198" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2617,7 +3328,7 @@
         <v>36</v>
       </c>
       <c r="B199" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2625,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="B200" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2633,7 +3344,7 @@
         <v>37</v>
       </c>
       <c r="B201" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2641,7 +3352,7 @@
         <v>37</v>
       </c>
       <c r="B202" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2649,7 +3360,7 @@
         <v>37</v>
       </c>
       <c r="B203" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2657,7 +3368,7 @@
         <v>3</v>
       </c>
       <c r="B204" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2665,7 +3376,7 @@
         <v>38</v>
       </c>
       <c r="B205" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2673,7 +3384,7 @@
         <v>38</v>
       </c>
       <c r="B206" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2681,7 +3392,7 @@
         <v>38</v>
       </c>
       <c r="B207" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2689,7 +3400,7 @@
         <v>38</v>
       </c>
       <c r="B208" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2697,7 +3408,7 @@
         <v>3</v>
       </c>
       <c r="B209" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2705,7 +3416,7 @@
         <v>39</v>
       </c>
       <c r="B210" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2713,7 +3424,7 @@
         <v>39</v>
       </c>
       <c r="B211" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2721,7 +3432,7 @@
         <v>39</v>
       </c>
       <c r="B212" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2729,7 +3440,7 @@
         <v>39</v>
       </c>
       <c r="B213" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2737,7 +3448,7 @@
         <v>3</v>
       </c>
       <c r="B214" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2745,7 +3456,7 @@
         <v>40</v>
       </c>
       <c r="B215" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2753,7 +3464,7 @@
         <v>40</v>
       </c>
       <c r="B216" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2761,7 +3472,7 @@
         <v>3</v>
       </c>
       <c r="B217" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2769,7 +3480,7 @@
         <v>41</v>
       </c>
       <c r="B218" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2777,7 +3488,7 @@
         <v>41</v>
       </c>
       <c r="B219" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2785,7 +3496,7 @@
         <v>41</v>
       </c>
       <c r="B220" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2793,7 +3504,7 @@
         <v>3</v>
       </c>
       <c r="B221" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2801,7 +3512,7 @@
         <v>42</v>
       </c>
       <c r="B222" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2809,7 +3520,7 @@
         <v>42</v>
       </c>
       <c r="B223" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2817,7 +3528,7 @@
         <v>42</v>
       </c>
       <c r="B224" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2825,7 +3536,7 @@
         <v>3</v>
       </c>
       <c r="B225" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2833,7 +3544,7 @@
         <v>43</v>
       </c>
       <c r="B226" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2841,7 +3552,7 @@
         <v>43</v>
       </c>
       <c r="B227" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2849,7 +3560,7 @@
         <v>43</v>
       </c>
       <c r="B228" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2857,7 +3568,7 @@
         <v>3</v>
       </c>
       <c r="B229" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2865,7 +3576,7 @@
         <v>44</v>
       </c>
       <c r="B230" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2873,7 +3584,7 @@
         <v>44</v>
       </c>
       <c r="B231" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2881,7 +3592,7 @@
         <v>44</v>
       </c>
       <c r="B232" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2889,7 +3600,7 @@
         <v>44</v>
       </c>
       <c r="B233" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2897,7 +3608,2111 @@
         <v>3</v>
       </c>
       <c r="B234" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>45</v>
+      </c>
+      <c r="B235" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>45</v>
+      </c>
+      <c r="B236" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>45</v>
+      </c>
+      <c r="B237" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>3</v>
+      </c>
+      <c r="B238" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>46</v>
+      </c>
+      <c r="B239" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>46</v>
+      </c>
+      <c r="B240" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>46</v>
+      </c>
+      <c r="B241" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>46</v>
+      </c>
+      <c r="B242" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>46</v>
+      </c>
+      <c r="B243" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>46</v>
+      </c>
+      <c r="B244" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>46</v>
+      </c>
+      <c r="B245" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>46</v>
+      </c>
+      <c r="B246" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>46</v>
+      </c>
+      <c r="B247" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>46</v>
+      </c>
+      <c r="B248" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>3</v>
+      </c>
+      <c r="B249" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>47</v>
+      </c>
+      <c r="B250" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>47</v>
+      </c>
+      <c r="B251" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>47</v>
+      </c>
+      <c r="B252" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>47</v>
+      </c>
+      <c r="B253" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>3</v>
+      </c>
+      <c r="B254" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>48</v>
+      </c>
+      <c r="B255" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>48</v>
+      </c>
+      <c r="B256" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>48</v>
+      </c>
+      <c r="B257" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>48</v>
+      </c>
+      <c r="B258" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>48</v>
+      </c>
+      <c r="B259" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>3</v>
+      </c>
+      <c r="B260" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>49</v>
+      </c>
+      <c r="B261" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>49</v>
+      </c>
+      <c r="B262" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>49</v>
+      </c>
+      <c r="B263" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>3</v>
+      </c>
+      <c r="B264" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>50</v>
+      </c>
+      <c r="B265" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>50</v>
+      </c>
+      <c r="B266" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>50</v>
+      </c>
+      <c r="B267" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>50</v>
+      </c>
+      <c r="B268" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>3</v>
+      </c>
+      <c r="B269" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>51</v>
+      </c>
+      <c r="B270" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>51</v>
+      </c>
+      <c r="B271" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>51</v>
+      </c>
+      <c r="B272" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>51</v>
+      </c>
+      <c r="B273" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>51</v>
+      </c>
+      <c r="B274" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>3</v>
+      </c>
+      <c r="B275" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
         <v>52</v>
+      </c>
+      <c r="B276" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>52</v>
+      </c>
+      <c r="B277" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>52</v>
+      </c>
+      <c r="B278" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>52</v>
+      </c>
+      <c r="B279" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>3</v>
+      </c>
+      <c r="B280" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>53</v>
+      </c>
+      <c r="B281" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>53</v>
+      </c>
+      <c r="B282" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>53</v>
+      </c>
+      <c r="B283" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>53</v>
+      </c>
+      <c r="B284" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>53</v>
+      </c>
+      <c r="B285" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>3</v>
+      </c>
+      <c r="B286" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>54</v>
+      </c>
+      <c r="B287" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>54</v>
+      </c>
+      <c r="B288" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>54</v>
+      </c>
+      <c r="B289" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>54</v>
+      </c>
+      <c r="B290" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>54</v>
+      </c>
+      <c r="B291" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>54</v>
+      </c>
+      <c r="B292" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>54</v>
+      </c>
+      <c r="B293" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>54</v>
+      </c>
+      <c r="B294" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>54</v>
+      </c>
+      <c r="B295" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>3</v>
+      </c>
+      <c r="B296" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>55</v>
+      </c>
+      <c r="B297" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>55</v>
+      </c>
+      <c r="B298" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>55</v>
+      </c>
+      <c r="B299" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>55</v>
+      </c>
+      <c r="B300" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>55</v>
+      </c>
+      <c r="B301" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>55</v>
+      </c>
+      <c r="B302" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>55</v>
+      </c>
+      <c r="B303" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>3</v>
+      </c>
+      <c r="B304" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>56</v>
+      </c>
+      <c r="B305" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>56</v>
+      </c>
+      <c r="B306" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>56</v>
+      </c>
+      <c r="B307" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>56</v>
+      </c>
+      <c r="B308" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>56</v>
+      </c>
+      <c r="B309" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>3</v>
+      </c>
+      <c r="B310" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>57</v>
+      </c>
+      <c r="B311" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>57</v>
+      </c>
+      <c r="B312" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>57</v>
+      </c>
+      <c r="B313" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>3</v>
+      </c>
+      <c r="B314" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>58</v>
+      </c>
+      <c r="B315" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>58</v>
+      </c>
+      <c r="B316" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>58</v>
+      </c>
+      <c r="B317" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>3</v>
+      </c>
+      <c r="B318" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>59</v>
+      </c>
+      <c r="B319" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>59</v>
+      </c>
+      <c r="B320" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>59</v>
+      </c>
+      <c r="B321" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>59</v>
+      </c>
+      <c r="B322" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>3</v>
+      </c>
+      <c r="B323" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>60</v>
+      </c>
+      <c r="B324" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>60</v>
+      </c>
+      <c r="B325" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>60</v>
+      </c>
+      <c r="B326" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>60</v>
+      </c>
+      <c r="B327" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>60</v>
+      </c>
+      <c r="B328" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>60</v>
+      </c>
+      <c r="B329" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>60</v>
+      </c>
+      <c r="B330" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>60</v>
+      </c>
+      <c r="B331" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>60</v>
+      </c>
+      <c r="B332" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>60</v>
+      </c>
+      <c r="B333" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>60</v>
+      </c>
+      <c r="B334" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>60</v>
+      </c>
+      <c r="B335" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>60</v>
+      </c>
+      <c r="B336" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>60</v>
+      </c>
+      <c r="B337" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>60</v>
+      </c>
+      <c r="B338" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>60</v>
+      </c>
+      <c r="B339" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>60</v>
+      </c>
+      <c r="B340" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>60</v>
+      </c>
+      <c r="B341" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>60</v>
+      </c>
+      <c r="B342" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>3</v>
+      </c>
+      <c r="B343" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>61</v>
+      </c>
+      <c r="B344" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>61</v>
+      </c>
+      <c r="B345" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>61</v>
+      </c>
+      <c r="B346" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>61</v>
+      </c>
+      <c r="B347" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>3</v>
+      </c>
+      <c r="B348" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>62</v>
+      </c>
+      <c r="B349" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>62</v>
+      </c>
+      <c r="B350" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>62</v>
+      </c>
+      <c r="B351" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>3</v>
+      </c>
+      <c r="B352" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>63</v>
+      </c>
+      <c r="B353" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>63</v>
+      </c>
+      <c r="B354" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>63</v>
+      </c>
+      <c r="B355" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>3</v>
+      </c>
+      <c r="B356" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>64</v>
+      </c>
+      <c r="B357" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>64</v>
+      </c>
+      <c r="B358" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>64</v>
+      </c>
+      <c r="B359" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>64</v>
+      </c>
+      <c r="B360" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>3</v>
+      </c>
+      <c r="B361" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>65</v>
+      </c>
+      <c r="B362" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>65</v>
+      </c>
+      <c r="B363" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>65</v>
+      </c>
+      <c r="B364" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>65</v>
+      </c>
+      <c r="B365" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>65</v>
+      </c>
+      <c r="B366" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>65</v>
+      </c>
+      <c r="B367" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>65</v>
+      </c>
+      <c r="B368" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>65</v>
+      </c>
+      <c r="B369" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>65</v>
+      </c>
+      <c r="B370" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>65</v>
+      </c>
+      <c r="B371" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>65</v>
+      </c>
+      <c r="B372" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>65</v>
+      </c>
+      <c r="B373" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>3</v>
+      </c>
+      <c r="B374" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>66</v>
+      </c>
+      <c r="B375" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>66</v>
+      </c>
+      <c r="B376" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>66</v>
+      </c>
+      <c r="B377" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>66</v>
+      </c>
+      <c r="B378" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>3</v>
+      </c>
+      <c r="B379" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>67</v>
+      </c>
+      <c r="B380" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>67</v>
+      </c>
+      <c r="B381" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>67</v>
+      </c>
+      <c r="B382" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>67</v>
+      </c>
+      <c r="B383" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>67</v>
+      </c>
+      <c r="B384" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>3</v>
+      </c>
+      <c r="B385" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>68</v>
+      </c>
+      <c r="B386" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>68</v>
+      </c>
+      <c r="B387" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>68</v>
+      </c>
+      <c r="B388" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
+        <v>3</v>
+      </c>
+      <c r="B389" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>69</v>
+      </c>
+      <c r="B390" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>69</v>
+      </c>
+      <c r="B391" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>69</v>
+      </c>
+      <c r="B392" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>69</v>
+      </c>
+      <c r="B393" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>3</v>
+      </c>
+      <c r="B394" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>70</v>
+      </c>
+      <c r="B395" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>70</v>
+      </c>
+      <c r="B396" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
+        <v>70</v>
+      </c>
+      <c r="B397" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
+        <v>3</v>
+      </c>
+      <c r="B398" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
+        <v>71</v>
+      </c>
+      <c r="B399" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
+        <v>71</v>
+      </c>
+      <c r="B400" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
+        <v>71</v>
+      </c>
+      <c r="B401" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>3</v>
+      </c>
+      <c r="B402" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>72</v>
+      </c>
+      <c r="B403" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
+        <v>72</v>
+      </c>
+      <c r="B404" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
+        <v>72</v>
+      </c>
+      <c r="B405" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
+        <v>3</v>
+      </c>
+      <c r="B406" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
+        <v>73</v>
+      </c>
+      <c r="B407" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
+        <v>73</v>
+      </c>
+      <c r="B408" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
+        <v>73</v>
+      </c>
+      <c r="B409" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
+        <v>3</v>
+      </c>
+      <c r="B410" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" t="s">
+        <v>74</v>
+      </c>
+      <c r="B411" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
+        <v>74</v>
+      </c>
+      <c r="B412" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" t="s">
+        <v>74</v>
+      </c>
+      <c r="B413" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
+        <v>3</v>
+      </c>
+      <c r="B414" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" t="s">
+        <v>75</v>
+      </c>
+      <c r="B415" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" t="s">
+        <v>75</v>
+      </c>
+      <c r="B416" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
+        <v>75</v>
+      </c>
+      <c r="B417" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
+        <v>3</v>
+      </c>
+      <c r="B418" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
+        <v>76</v>
+      </c>
+      <c r="B419" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" t="s">
+        <v>76</v>
+      </c>
+      <c r="B420" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" t="s">
+        <v>76</v>
+      </c>
+      <c r="B421" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
+        <v>3</v>
+      </c>
+      <c r="B422" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
+        <v>77</v>
+      </c>
+      <c r="B423" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
+        <v>77</v>
+      </c>
+      <c r="B424" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" t="s">
+        <v>77</v>
+      </c>
+      <c r="B425" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" t="s">
+        <v>3</v>
+      </c>
+      <c r="B426" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" t="s">
+        <v>78</v>
+      </c>
+      <c r="B427" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" t="s">
+        <v>78</v>
+      </c>
+      <c r="B428" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" t="s">
+        <v>78</v>
+      </c>
+      <c r="B429" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" t="s">
+        <v>78</v>
+      </c>
+      <c r="B430" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" t="s">
+        <v>3</v>
+      </c>
+      <c r="B431" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" t="s">
+        <v>79</v>
+      </c>
+      <c r="B432" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" t="s">
+        <v>79</v>
+      </c>
+      <c r="B433" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" t="s">
+        <v>79</v>
+      </c>
+      <c r="B434" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" t="s">
+        <v>79</v>
+      </c>
+      <c r="B435" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" t="s">
+        <v>79</v>
+      </c>
+      <c r="B436" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" t="s">
+        <v>79</v>
+      </c>
+      <c r="B437" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" t="s">
+        <v>79</v>
+      </c>
+      <c r="B438" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" t="s">
+        <v>79</v>
+      </c>
+      <c r="B439" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" t="s">
+        <v>79</v>
+      </c>
+      <c r="B440" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" t="s">
+        <v>79</v>
+      </c>
+      <c r="B441" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" t="s">
+        <v>3</v>
+      </c>
+      <c r="B442" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" t="s">
+        <v>80</v>
+      </c>
+      <c r="B443" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" t="s">
+        <v>80</v>
+      </c>
+      <c r="B444" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" t="s">
+        <v>80</v>
+      </c>
+      <c r="B445" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" t="s">
+        <v>80</v>
+      </c>
+      <c r="B446" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" t="s">
+        <v>3</v>
+      </c>
+      <c r="B447" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" t="s">
+        <v>81</v>
+      </c>
+      <c r="B448" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" t="s">
+        <v>81</v>
+      </c>
+      <c r="B449" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" t="s">
+        <v>81</v>
+      </c>
+      <c r="B450" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" t="s">
+        <v>81</v>
+      </c>
+      <c r="B451" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" t="s">
+        <v>81</v>
+      </c>
+      <c r="B452" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" t="s">
+        <v>81</v>
+      </c>
+      <c r="B453" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" t="s">
+        <v>3</v>
+      </c>
+      <c r="B454" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" t="s">
+        <v>82</v>
+      </c>
+      <c r="B455" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" t="s">
+        <v>82</v>
+      </c>
+      <c r="B456" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" t="s">
+        <v>82</v>
+      </c>
+      <c r="B457" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" t="s">
+        <v>82</v>
+      </c>
+      <c r="B458" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" t="s">
+        <v>82</v>
+      </c>
+      <c r="B459" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" t="s">
+        <v>3</v>
+      </c>
+      <c r="B460" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" t="s">
+        <v>83</v>
+      </c>
+      <c r="B461" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" t="s">
+        <v>83</v>
+      </c>
+      <c r="B462" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" t="s">
+        <v>83</v>
+      </c>
+      <c r="B463" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" t="s">
+        <v>3</v>
+      </c>
+      <c r="B464" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" t="s">
+        <v>84</v>
+      </c>
+      <c r="B465" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" t="s">
+        <v>84</v>
+      </c>
+      <c r="B466" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" t="s">
+        <v>84</v>
+      </c>
+      <c r="B467" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" t="s">
+        <v>84</v>
+      </c>
+      <c r="B468" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" t="s">
+        <v>84</v>
+      </c>
+      <c r="B469" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" t="s">
+        <v>84</v>
+      </c>
+      <c r="B470" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" t="s">
+        <v>84</v>
+      </c>
+      <c r="B471" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" t="s">
+        <v>84</v>
+      </c>
+      <c r="B472" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" t="s">
+        <v>84</v>
+      </c>
+      <c r="B473" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" t="s">
+        <v>84</v>
+      </c>
+      <c r="B474" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" t="s">
+        <v>84</v>
+      </c>
+      <c r="B475" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" t="s">
+        <v>3</v>
+      </c>
+      <c r="B476" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" t="s">
+        <v>85</v>
+      </c>
+      <c r="B477" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" t="s">
+        <v>85</v>
+      </c>
+      <c r="B478" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" t="s">
+        <v>85</v>
+      </c>
+      <c r="B479" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" t="s">
+        <v>85</v>
+      </c>
+      <c r="B480" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" t="s">
+        <v>85</v>
+      </c>
+      <c r="B481" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" t="s">
+        <v>3</v>
+      </c>
+      <c r="B482" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" t="s">
+        <v>86</v>
+      </c>
+      <c r="B483" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" t="s">
+        <v>86</v>
+      </c>
+      <c r="B484" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" t="s">
+        <v>86</v>
+      </c>
+      <c r="B485" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" t="s">
+        <v>3</v>
+      </c>
+      <c r="B486" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" t="s">
+        <v>87</v>
+      </c>
+      <c r="B487" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" t="s">
+        <v>87</v>
+      </c>
+      <c r="B488" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" t="s">
+        <v>87</v>
+      </c>
+      <c r="B489" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" t="s">
+        <v>3</v>
+      </c>
+      <c r="B490" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" t="s">
+        <v>88</v>
+      </c>
+      <c r="B491" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" t="s">
+        <v>88</v>
+      </c>
+      <c r="B492" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" t="s">
+        <v>88</v>
+      </c>
+      <c r="B493" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" t="s">
+        <v>3</v>
+      </c>
+      <c r="B494" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" t="s">
+        <v>89</v>
+      </c>
+      <c r="B495" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" t="s">
+        <v>89</v>
+      </c>
+      <c r="B496" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" t="s">
+        <v>3</v>
+      </c>
+      <c r="B497" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Processos.xlsx
+++ b/Processos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="775">
   <si>
     <t>Processo</t>
   </si>
@@ -151,6 +151,363 @@
     <t>Processo Nº ATOrd-0010750-71.2018.5.03.0018 $$ 110167</t>
   </si>
   <si>
+    <t>Processo Nº ATOrd-0010154-14.2023.5.03.0018 $$ 112514</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010806-67.2022.5.03.0179 $$ 112840</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010175-87.2023.5.03.0018 $$ 113548</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010173-20.2023.5.03.0018 $$ 113623</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010170-65.2023.5.03.0018 $$ 113770</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010178-42.2023.5.03.0018 $$ 114046</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0156100-73.2007.5.03.0019 $$ 116148</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0163400-18.2009.5.03.0019 $$ 116230</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0000975-10.2010.5.03.0019 $$ 120005</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0001978-60.2011.5.03.0020 $$ 120525</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0120100-28.1994.5.03.0020 $$ 120739</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010179-21.2023.5.03.0020 $$ 120912</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0000317-04.2015.5.03.0021 $$ 121463</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010048-43.2023.5.03.0021 $$ 123353</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010400-40.2019.5.03.0021 $$ 126649</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010103-91.2023.5.03.0021 $$ 130126</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010172-14.2023.5.03.0025 $$ 133746</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010156-93.2023.5.03.0111 $$ 140545</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010192-08.2023.5.03.0024 $$ 141299</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010115-93.2023.5.03.0025 $$ 148619</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0000951-22.2014.5.03.0025 $$ 153357</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010643-23.2019.5.03.0105 $$ 168326</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010126-54.2015.5.03.0106 $$ 170747</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010193-38.2023.5.03.0106 $$ 171320</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0000528-13.2014.5.03.0106 $$ 174113</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010869-22.2019.5.03.0107 $$ 174692</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010040-96.2023.5.03.0108 $$ 174777</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010025-30.2023.5.03.0108 $$ 174803</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010175-24.2023.5.03.0136 $$ 176120</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010178-60.2023.5.03.0109 $$ 177586</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0011011-15.2022.5.03.0109 $$ 183159</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010015-80.2023.5.03.0109 $$ 185133</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0030700-75.2004.5.03.0109 $$ 185752</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0002303-59.2011.5.03.0109 $$ 186037</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010710-44.2017.5.03.0109 $$ 187180</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010505-07.2020.5.03.0110 $$ 188544</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0000100-87.2012.5.03.0110 $$ 189204</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010171-65.2023.5.03.0110 $$ 189878</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010181-09.2023.5.03.0111 $$ 194883</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010180-24.2023.5.03.0111 $$ 194973</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010608-37.2022.5.03.0112 $$ 195218</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010187-13.2023.5.03.0112 $$ 196174</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010188-95.2023.5.03.0112 $$ 197343</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010731-32.2022.5.03.0113 $$ 198292</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010190-62.2023.5.03.0113AUTOR GLEISON ANGELO DOMINGUES DE $$ 199005</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010998-98.2022.5.03.0114 $$ 210420</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010194-30.2023.5.03.0136 $$ 212016</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010371-38.2016.5.03.0136 $$ 223198</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010194-30.2023.5.03.0136 $$ 223238</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010878-23.2021.5.03.0136 $$ 223730</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010161-37.2023.5.03.0137 $$ 224731</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010131-02.2023.5.03.0137 $$ 231390</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0000089-37.2013.5.03.0138 $$ 236921</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010176-97.2023.5.03.0139 $$ 240074</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010515-58.2020.5.03.0140 $$ 244446</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010366-96.2019.5.03.0140 $$ 244791</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010181-19.2023.5.03.0140 $$ 245087</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010979-14.2022.5.03.0140 $$ 245467</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010185-56.2023.5.03.0140 $$ 245811</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010186-41.2023.5.03.0140 $$ 245976</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010605-95.2022.5.03.0140 $$ 246266</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010574-85.2016.5.03.0140 $$ 247864</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010597-98.2022.5.03.0179 $$ 249618</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010990-17.2022.5.03.0181 $$ 263977</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010173-16.2023.5.03.0181 $$ 265593</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010176-62.2023.5.03.0183 $$ 267195</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010170-55.2023.5.03.0183 $$ 267273</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010177-47.2023.5.03.0183 $$ 267324</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0011628-17.2017.5.03.0184 $$ 271095</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010095-10.2023.5.03.0185 $$ 273192</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010903-49.2022.5.03.0185 $$ 275082</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010108-09.2023.5.03.0185 $$ 275136</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010100-32.2023.5.03.0185 $$ 275290</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010194-77.2023.5.03.0185 $$ 275926</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010535-11.2020.5.03.0185 $$ 283599</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0001454-48.2014.5.03.0185 $$ 284019</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010193-92.2023.5.03.0185 $$ 286995</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0011839-13.2015.5.03.0026 $$ 289060</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010212-90.2023.5.03.0026 $$ 293705</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010387-21.2022.5.03.0026AUTOR ADEMILSON LOPES $$ 301947</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010225-26.2022.5.03.0026 $$ 301983</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010225-26.2022.5.03.0026 $$ 302010</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010240-58.2023.5.03.0026 $$ 303607</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010201-58.2023.5.03.0027 $$ 305525</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010895-61.2022.5.03.0027 $$ 305696</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0001633-10.2010.5.03.0027 $$ 308282</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010274-45.2014.5.03.0027 $$ 313089</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010222-34.2023.5.03.0027 $$ 317462</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010227-53.2023.5.03.0028 $$ 321201</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010023-09.2023.5.03.0028 $$ 321800</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010245-74.2023.5.03.0028 $$ 321939</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010018-84.2023.5.03.0028 $$ 322014</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010268-71.2022.5.03.0087 $$ 324282</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0001979-38.2011.5.03.0087 $$ 325361</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010097-80.2023.5.03.0087 $$ 325779</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010186-06.2023.5.03.0087 $$ 327054</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010190-43.2023.5.03.0087 $$ 327087</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010201-72.2023.5.03.0087 $$ 327313</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010215-56.2023.5.03.0087 $$ 327686</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010218-11.2023.5.03.0087AUTOR JULIANE FERREIRA VIDAL RAMOS $$ 327720</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010225-03.2023.5.03.0087 $$ 328001</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010227-70.2023.5.03.0087 $$ 328037</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010229-40.2023.5.03.0087 $$ 328071</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010236-32.2023.5.03.0087 $$ 328955</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010212-67.2023.5.03.0163 $$ 338460</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010224-81.2023.5.03.0163 $$ 343890</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010911-92.2022.5.03.0163 $$ 345974</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010046-35.2023.5.03.0163 $$ 348386</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010696-87.2020.5.03.0163 $$ 349121</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0011008-09.2022.5.03.0029 $$ 349379</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010278-61.2023.5.03.0029 $$ 359738</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010286-38.2023.5.03.0029 $$ 360395</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010277-76.2023.5.03.0029 $$ 360575</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010283-83.2023.5.03.0029 $$ 360823</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010287-23.2023.5.03.0029 $$ 360886</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010291-60.2023.5.03.0029 $$ 360914</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010282-95.2023.5.03.0030 $$ 364830</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0010260-37.2023.5.03.0030 $$ 365006</t>
+  </si>
+  <si>
+    <t>Processo Nº ATOrd-0159000-45.1997.5.03.0030 $$ 365031</t>
+  </si>
+  <si>
     <t xml:space="preserve">AUTOR LEANDRO SOUZA GOMES </t>
   </si>
   <si>
@@ -665,6 +1022,1323 @@
   </si>
   <si>
     <t xml:space="preserve">INTERESSADOINSTITUTO NACIONAL DE PREVIDÊNCIA SOCIAL (INSS)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ARI ELISEI VILELA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO RENATO VICTOR AMARAL(OAB: 316922/SP) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CAPGEMINI BRASIL S/A   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MIQUELINE DO NASCIMENTO VARELA NEVES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO CLAUDIA PEIXOTO DE AZEVEDO SILVA(OAB: 159402/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ROBERT ZANANDREIZ DE MATTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU J.M SERVICOS AEREOS LTDA - ME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU GUSTAVO ALVES SOARES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CONCEICAO ROSA DA SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MARCUS LEANDRO LOPES DA SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CONSTRUTORA ALVES LTDA. - EPP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PHILLIP MATIAS ZANANDREIZ SALAZAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ANDRE FILIPE CARVALHO MATTOS   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR JEFFERSON LUIZ FREIRE SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO DIANA CLAUDINO EUSTAQUIO(OAB: 156262/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU INFRAREDES - INFRAESTRUTURA E REDES DE TELECOMUNICACOES LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CLARO S.A.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR VANIA MENDES PIRES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ACAO CONTACT CENTER EIRELI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU BANCO LOSANGO S.A. - BANCO MULTIPLO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU BANCO BRADESCO S.A.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR BARBARA TAIS MORAIS ALVES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ALFRED GIMPEL MOREIRA PINTO(OAB: 217884/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CEDOC - GESTAO DE DOCUMENTOS, ARQUIVOS E INFORMACOES LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ICARO GABRIEL FERREIRA DE SOUZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO BRENO HAROLDO RIBEIRO DE OLIVEIRA(OAB: 134890/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ALEXANDRE HERMENEGILDO MATEUS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ARTE CRIAR MOVEIS E INTERIORES LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MIGUEL ALVES COSTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ALOIZIO JOSE DE CARVALHO(OAB: 46462/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU VICENTE DOROTEU DOS SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ATLAN SERVICOS LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TIAGO GLICERIO DOS SANTOS   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR GENIVAL MANOEL DOS SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO JOSE GUMERCINDO VILELA(OAB: 45351/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU LAR MINAS ENGENHARIA LTDA - EPP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU LEANDRO ATILIO RODRIGUES   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR CLAUDIO DA SILVA ALMEIDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO PAULO SANDERSON GIL NUNES(OAB: 38562/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ADERLAINE AUGUSTA DE OLIVEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MARIA LUIZA DA CONCEICAO OLIVEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU INICIATIVA EMPREENDIMENTOS E SERVICOS LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MARCELINO BATISTA DA SILVA Código para aferir autenticidade deste caderno: 1972303681/2023 Tribunal Regional do Trabalho da 3ª Região 3360 Data da Disponibilização: Segunda-feira, 13 de Março de 2023   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO SAMUEL SILVA FONSECA(OAB: 129986/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU RRJ TRANSPORTE DE VALORES, SEGURANCA E VIGILANCIA LTDA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TRANSSAFE TRANSPORTE DE VALORES E SEGURANCA PATRIMONIAL LTDA - ME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU EMBRAFORTE SEGURANCA E TRANSPORTE DE VALORES LTDA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MARCOS FELIPE GONCALVES DE VILHENA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MARCOS ANDRE PAES DE VILHENA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PEDRO HENRIQUE GONCALVES DE VILHENA TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADODETRAN SP   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MARIA GUEDES DA LUZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO FELIPE MAURICIO SALIBA DE SOUZA(OAB: 108211/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SILVIO BUFONI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CARLOS JORGE MOREIRA DE SOUZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ROGERIO DE CARVALHO NOGUEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU RIOFORTE SERVICOS TECNICOS S/A TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOServiço Registral do 11º Ofício de Registro de Imóveis   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR LEONARDO HENRIQUE DA SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU S.E.S. SISTEMAS ELETRONICOS LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PLANTAO SERVICOS DE VIGILANCIA LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CONSERVO SERVICOS GERAIS LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR THAIS DE MELO FRANCO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO Alisson Wagner Ferreira(OAB: 113363/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MASTER BRASIL S.A.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR DANIEL LAURISTON DA CUNHA PEREIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO EDUARDO HENRIQUE DA SILVA CASTRO(OAB: 108893/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TURILESSA LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR SILVIA OLIVEIRA MOTIN INACIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO MARCOS AURELIO ROCHA PEREIRA DORNELAS(OAB: 167926/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MUNICIPIO DE BELO HORIZONTE TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR BARBARA CRISTINA ZUBA SOARES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO Rosemberg Chaefer Nascimento Silva(OAB: 109135/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PATRICIA VALERIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU RIO ZONA SUL CLINICA ODONTOLOGICA LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MARCELO FERREIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU RODRIGO VALERIO COSTA PEDRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU RIZZO CLINICA ODONTOLOGICA LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU LUIZ RAFAEL CAMPOS MAGALHAES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU LOCKE SERVICOS ODONTOLOGICOS LTDA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SAVOY SERVICOS DE DIAGNOSTICOS LTDA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PW INSTITUTO DE ODONTOLOGIA LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU DANIELLE PENA DUARTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ATLAS FRANQUIAS EIRELI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TECNOLOGIA E ARTE PROTESE ODONTOLOGICA LTDA - EPP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SERVE MINAS SERVICOS GERAIS LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PAULO HENRIQUE RODRIGUES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU EUGENIO JORGE FERREIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU BMVF FRANCHISING E PARTICIPACOES LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU RENATO COSTA FRANCO BALDAN   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR SIDNEI DELFINO DOS SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO JANAINA OLIVIA CASTELAR DE PAULA(OAB: 117969/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU VLI MULTIMODAL S.A. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU FERROVIA CENTRO-ATLANTICA S.A  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR CAMILA JARDIM GONCALVES DOS SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ISABELLA SANGLARD PIMENTA MACHADO(OAB: 104778/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR VIVIANE MARIA COSTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ERNANE EUSTAQUIO DOS SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO FELIPE CAMPOS MUZZI(OAB: 111498/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ULTRA INFINITY TRANSPORTES EIRELI   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR FRANCISCO DE ASSIS ALMEIDA NUNES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU IPEC - INDUSTRIA DE PERFUMES E COSMETICOS LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU L.A.M. PERFUMES E COSMETICOS LTDA - EPP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU LEOPOLDO MESQUITA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO MARCOS JOSE RODRIGUES(OAB: 57915/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SOFCON - SOCIEDADE FRANCHISING &amp; CONSULTORIA LTDA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MILLENNIUM - COMERCIO DE PERFUMES LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MARLENE GEISA VILLANI MESQUITA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MIRTES NASCIMENTO BARBOSA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU LEOPOLDO MESQUITA FILHO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERITO MIGUEL FERNANDO BARBOSA SILVA TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MARIA GERALDA DA SILVA MARTINS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO MARCOS AURELIO ROCHA PEREIRA DORNELAS(OAB: 167926/MG) Código para aferir autenticidade deste caderno: 1972303681/2023 Tribunal Regional do Trabalho da 3ª Região 3884 Data da Disponibilização: Segunda-feira, 13 de Março de 2023   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR LORENNA MEIRA DE ALVARENGA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO AIRTON DELCIO ELER JUNIOR(OAB: 108606/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PAULO GUILHERME ALVARES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU BIG-GRANDES IDEIAS LTDA TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOCARTÓRIO DE REGISTRO DE IMÓVEIS DE ITABIRITO MG ARREMATANTE MARCO ANTONIO ANDERE TEIXEIRA   </t>
+  </si>
+  <si>
+    <t>AUTOR HELEN CRISTINA VIEIRA DE ASSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ANTONIO TEIXEIRA BERTANI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO BRUNO ROBERTO PRATES SILVA(OAB: 140500/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU RANAEL SERVICOS EIRELI - ME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR JULIO CESAR DOS SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO DARLENE MORAIS ASFORA(OAB: 62510/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR DEIVID BAUER GONCALVES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO RUBEM RIBEIRO NETO(OAB: 118475/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SETELOC LTDA - ME   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR FERNANDO FERREIRA PIMENTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO BRUNO VINICIUS DOS SANTOS(OAB: 193197/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TUPI REBOQUE E TRANSPORTES LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR KILDARE GODINHO DE SA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO LEONARDO DAVID BRAGA DOS SANTOS(OAB: 149502/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR VANDERLI GOMES DA SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ATILA ANERES DA SILVA(OAB: 64934/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU BR MINERAIS COMERCIO DE PRODUTOS E EXTRACAO MINERAL LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR LUCILENE DOS SANTOS CRUZ RODRIGUES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ANTONIO RAIMUNDO DE CASTRO QUEIROZ JUNIOR(OAB: 94392/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TURQUEZA TECIDOS E VESTUARIOS S/A   Código para aferir autenticidade deste caderno: 1972303681/2023 Tribunal Regional do Trabalho da 3ª Região 4042 Data da Disponibilização: Segunda-feira, 13 de Março de 2023   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR PAULO ROBERTO CARAM PATRUS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO FREDERICO POLTRONIERI ANDRADE CRUZ(OAB: 150601/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CAIXA ECONOMICA FEDERAL   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ELISANGELA MARIA DE JESUS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ROBERTO BARRA(OAB: 47868/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MARIA GENY UTSCH DE CASTRO ARAUJO   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ELIZETE LELIS DE OLIVEIRA FELIX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ARI DE ALMEIDA FILHO(OAB: 25950/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU JOELMA DUARTE DE OLIVEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU UNIVERSO SERVICOS E ASSESSORIA EMPRESARIAL LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MARILIA DOS SANTOS DE SOUZA PAULA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO DANILO FELICIO GONÇALVES FERREIRA(OAB: 108729/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU JOSE ARISTON MACHADO SANTIAGO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU HELOISA MACHADO SANTIAGO TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOVISA DO BRASIL EMPREENDIMENTOS LTDA TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOITAU UNIBANCO S.A. TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOAMERICAN EXPRESS BRASIL ASSESSORIA EMPRESARIAL LTDA. TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOMASTERCARD BRASIL LTDA TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOBANCO CREDICARD S.A. TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOBANCO BRADESCO S.A.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR CARLOS EDUARDO DA SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO BRUNO EDUARDO MARTINS TAVARES(OAB: 118883/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MUNICIPIO DE BELO HORIZONTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERITO LEONARDO ROSSI   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MARIA DE FATIMA XAVIER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MINAS FORTE SEGURANCA E VIGILANCIA LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR VIRGINIA DIAS DE SOUZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MAGNO LUIZ VENANCIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO SAULO MOREIRA GROSSI(OAB: 106437/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ROUXINOL VIAGENS E TURISMO LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR DEILSON SOUZA DE OLIVEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO SAMUEL DIAS DE MOURA(OAB: 168718/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU BANCO DO BRASIL SA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU FORTEBANCO VIGILANCIA E SEGURANCA LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU BANCO BRADESCO S.A. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU VANESSA AVELINO VIEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU LAURENCE GUSTAVO PINTO NETO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TECNOLOGIA BANCARIA S.A. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU FIDELYS SEGURANCA PRIVADA E TRANSPORTE DE VALORES LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU EDSON PINTO NETO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU FORTEBANCO ADMINISTRACAO DE SERVICOS LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR VALDIVINA RODRIGUES NUNES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ARIANE APARECIDA DE OLIVEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MARIA APARECIDA CRUZ   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR WARLEY BATISTA DE CARVALHO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ANJOS DA GUARDA SEGURANCA E VIGILANCIA LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR INGRID DA CRUZ SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO PATRICIA AFONSO PEDRAS(OAB: 109939/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CASA FUNDAMENTAL EIRELI   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ENI DAS DORES NICACIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO JONAS JOSE FERNANDES(OAB: 108084/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MERCEARIA E PADARIA WM LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO FABIO JORGE BOUERE DAHER(OAB: 96158/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SECTOR TECNOLOGIA EM SERVICOS LTDA.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MARIA FRANCISCA PEREIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO AMARILDO EZEQUIEL DA SILVA(OAB: 171167/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SUPERINTENDENCIA DE LIMPEZA URBANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR CESAR PIRES DA SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ARIANE PRISCILA COUTINHO DOS SANTOS(OAB: 187595/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PLANTAO SERVICOS DE VIGILANCIA LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR DOUGLAS HENRIQUE DE OLIVEIRA PERDIGAO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO THIAGO MENDONCA DE PAIVA(OAB: 157678/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MASTER BRASIL S.A. TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR GABRIELLY GOMES DA SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO LEONARDO SALGADO REZENDE(OAB: 143547/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PATRICK DOS SANTOS LOPES 02173021656 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU LEONARDO ANDRADE REIS   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU WA SOLUCOES LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR JURLEY CARNEIRO DE AMORIM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU FORMAS E ARMACOES G.S LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SOLIDO CONSTRUCOES E EMPREENDIMENTOS LTDA - ME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ENGENHARIA E CONSTRUCAO RC EIRELI   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ADAO ALVES DA COSTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO claudinei de souza rezende(OAB: 73981/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ALOYZO RAMOS MURTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ANDREIA RAMOS PRATES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MASSA FALIDA DE RODOVIARIO RAMOS LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MARCELO SILVA RAMOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MARIA JOSE DA COSTA RAMOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PATRICIA RAMOS MURTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ROQUE RAMOS DE OLIVEIRA NETO TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOKPMG CORPORATE FINANCE LTDA Código para aferir autenticidade deste caderno: 1972303681/2023 Tribunal Regional do Trabalho da 3ª Região 4639 Data da Disponibilização: Segunda-feira, 13 de Março de 2023     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR RONILDO ANTONIO FERNANDES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO PAULO DINIZ ROMUALDO(OAB: 122178/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SUDACLUBE DE SERVICOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MGSEG VIGILANCIA LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR JOSE NELSON LOPES FERREIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR CLAUDIONOR DA SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR EDUARDO DO ROSARIO MIRANDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ERIKA MASIN EMEDIATO(OAB: 133144/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU FORTEBANCO ADMINISTRACAO DE SERVICOS LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MULTI OPTICA DISTRIBUIDORA LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR PAULO HENRIQUE OLIVEIRA DOS SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ODEMAR TEIXEIRA LEMOS(OAB: 169244/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU HELIO THOME LAGE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU RENOVACAO ALIMENTOS E BEBIDAS EIRELI - ME   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ALEXANDRO JEFFERSON ALVES DE OLIVEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ANDRE MANSUR BRANDAO(OAB: 87242/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU UBER DO BRASIL TECNOLOGIA LTDA.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR CLAUDIMARA DOS SANTOS SILVA NUNES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ESDRAS SILVA DOS SANTOS(OAB: 140532/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CALCADOS ITAPUA S/A - CISA - EM RECUPERACAO JUDICIAL   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR LUCKY ALIMENTOS LTDA - ME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO Fernando César Teixeira(OAB: 108603/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR LEONARDO SILVA MESQUITA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO MATHEUS LELIS LEAL DE SOUZA(OAB: 162824/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CLEBER RODRIGUES SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CLAUDINEI CASTRO E SILVA - ME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CLAUDINEI CASTRO E SILVA TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOZE SOLUCOES TECNOLOGICAS DE COMERCIO DE BEBIDAS LTDA TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOIFOOD.COM AGENCIA DE RESTAURANTES ONLINE S.A. TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADORAPPI BRASIL INTERMEDIACAO DE NEGOCIOS LTDA TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADO99 TECNOLOGIA LTDA TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOUBER DO BRASIL TECNOLOGIA LTDA.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR DANIELE CARDOSO FERREIRA SILVA Código para aferir autenticidade deste caderno: 1972303681/2023 Tribunal Regional do Trabalho da 3ª Região 4768 Data da Disponibilização: Segunda-feira, 13 de Março de 2023   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO BRUNO RAFAEL PEREIRA GUERRA(OAB: 129015/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MAQUINA DE VENDAS BRASIL PARTICIPACOES S.A. EM RECUPERACAO JUDICIAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MV PARTICIPACOES S.A. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU NOSSA ELETRO S.A. EM RECUPERACAO JUDICIAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU LOJAS SALFER SA EM RECUPERACAO JUDICIAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU NORDESTE PARTICIPACOES S.A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU WG ELETRO S.A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CARLOS SARAIVA IMPORTACAO E COMERCIO S/A EM RECUPERACAO JUDICIAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU DISMOBRAS IMPORTACAO, EXPORTACAO E DISTRIBUICAO DE MOVEIS E ELETRODOMESTICOS S/A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ES PROMOTORA DE VENDAS LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MVN INVESTIMENTOS IMOBILIARIOS E PARTICIPACOES S.A.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ANDRE ELIAS PRALON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO MIGUEL MORAIS NETO(OAB: 97550/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ISABELA OTATTI VALLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO RONALDO EVANGELISTA DOS SANTOS(OAB: 60887/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU DROGARIA ENEIDA LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR WANDERSON DA CRUZ OLIVEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO RICARDO ALVES VALVERDE(OAB: 129032/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PERSONALITE SEGURANCA PRIVADA LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ADRIANO PINHEIRO GARCIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MAURILIO PEREIRA DA SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO LEONARDO AUGUSTO ALBERGARIA GOMES(OAB: 146654/MG) Código para aferir autenticidade deste caderno: 1972303681/2023 Tribunal Regional do Trabalho da 3ª Região 4958 Data da Disponibilização: Segunda-feira, 13 de Março de 2023   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TG TRANSPORTES GERAIS E DISTRIBUICAO LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ALEX ALVES DE JESUS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO RAPHAEL MENEZES DA SILVA ALEIXO(OAB: 130538/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU UNIVERSO DAS ANTENAS DIGITAL LTDA - ME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU REGINA DAS GRACAS SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU KELLY CRISTIANE MOREIRA SANTOS   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR WILLIAN JOSE DOS SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO LUCIANA RAMOS COSTA(OAB: 12316/SE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU N M ENGENHARIA E CONSTRUCOES LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR FERNANDO ROBERTO DOS SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO MARCOS DA SILVA REIS(OAB: 107369/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ULTRA INFINITY TRANSPORTES EIRELI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU EMPRESA BRASILEIRA DE CORREIOS E TELEGRAFOS   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MARCOS FERREIRA DE ANDRADE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ILTON MARTINS SOARES(OAB: 141989/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU EDSON PINTO NETO   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR NATHANAEL FERRAZ ANDRADE NUNES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO HUMBERTO PEDRO DA SILVA JUNIOR(OAB: 127512/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TELEFONICA BRASIL S.A.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR RONALDO DIAS DE FREITAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO MARCO AUGUSTO DE ARGENTON E QUEIROZ(OAB: 190106/MG) </t>
+  </si>
+  <si>
+    <t>RÉU LIDER TAXI AEREO S/A - AIR BRASIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ALOIZIO ALVES FERREIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SPA ENGENHARIA INDUSTRIA E COMERCIO LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO Adolfo Eustáquio Martins Dornellas(OAB: 39471/MG)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR IDELBRANDO GOMES DE BARCELOS FILHO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU EMPREITEIRA GPS/SJ LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ANTONIO MARCIO BOTELHO(OAB: 95117/MG) TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOPAULO FILLIPE VIEIRA ALVES   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR JENNIFA MACKEILLA COSTA SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR JOAO ALVES COUTINHO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO PAMELA RIBEIRO DE OLIVEIRA DINIZ(OAB: 118251/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU RAPHAEL BRANCO DI FRANCO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MARIA DE FATIMA RAMOS BRANCO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU WXK TRANSPORTES LOGISTICA E SERVICOS LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU FELIPE DOS SANTOS BARBOSA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MFK TRANSPORTES E LOGISTICA LTDA TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOCNseg TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOCARLITA TRANSPORTES LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR LAERCIO JUNIO VIEIRA RIBEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO WILSON REIS JUNIOR(OAB: 90862/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TEKSID DO BRASIL LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ROGERIO GERALDO DA SILVA(OAB: 134346/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MUNICIPIO DE ESMERALDAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ECOSUL SUSTENTABILIDADE E SANEAMENTO AMBIENTAL LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR REGINALDO DE OLIVEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO MARIA SONIA SILVA DESLANDES(OAB: 208465/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR JOCIMAR LUCAS DE OLIVEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ALEXANDRE CLAUDINO DOS SANTOS(OAB: 474673/SP) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU BERNARDO SERRA MOURA PINTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SEBE CONCRETOS E FERRAGENS LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SEBE CONSTRUTORA E EMPREITEIRA LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU BERNARDO SERRA MOURA PINTO   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR WESLLEY DE SOUZA SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO DANIELA FIGUEIREDO ABREU SILVA(OAB: 27741/BA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TECTRAX ENGENHARIA LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU IPIRANGA PRODUTOS DE PETROLEO S.A.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ROBSON DIAS PIMENTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR EDNA APARECIDA MADEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ALESSIO FABIANI ROSENDO(OAB: 64317/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU DIAGONAL ADMINISTRACAO DE SERVICOS INTERNOS LTDA - EPP   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ERIK VICENTE LACERDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CONSTRUTORA MATOS LTDA - ME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU VALDEIR CARVALHO SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU JOCENILDA CARVALHO SANTOS TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOConjunto Habitacional Henrique Silva Araújo   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR JILTON DOS SANTOS DA SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO GABRIELA RESENDE RIOS(OAB: 92268/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SAO CRISTOVAO CHAPAS LTDA - ME   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR RICARDO JORGE PEREIRA DA SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO VANESSA MACHADO DE OLIVEIRA(OAB: 199192/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MUNICIPIO DE BETIM   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR CICERO AUGUSTO CRISPIM DA MOTTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO SANZYO ALVES AUGUSTO(OAB: 90404/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TRANSPORTADORA MORAES E SILVEIRA LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR CRISTIANO RODRIGUES DE ARAUJO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SUPERMERCADO SUPER LUNA S.A  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR IVO CARLOTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO GABRIEL JANUZZI VIANA(OAB: 119463/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CONDOMINIO TOPAZIO   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ANTONIO ALVES DE ALENCAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ADAO JOSE PEREIRA DOS SANTOS(OAB: 152400/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU POSTO PIO XII LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ROBERTO ROCHA DE CARVALHO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU LUCIA AMARAL CARVALHO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU LUIZ ROBERTO DE CARVALHO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERITO ANTONIO EDUARDO TEIXEIRA HARDY   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR CLAUDIA APARECIDA COSTA </t>
+  </si>
+  <si>
+    <t>ADVOGADO ALEX SANDRO BERNARDES(OAB: 108076/MG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PLASTCENTER INDUSTRIA E COMERCIO DE ARTEFATOS PLASTICOS LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TWANNY STANKOWICH PAULA DA SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PLASCOLLOR'S INDUSTRIA E COMERCIO DE ARTEFATOS PLASTICOS LTDA - ME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU RAQUEL FERREIRA DOS SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU RICARDO COSTA RODRIGUES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU FRANCISCO JOAO DE SOUSA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MARCOS DE LIMA SOUSA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU RAY COLLOR'S TECNOLOGIA EM PLASTICOS LTDA - ME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU GERALDO MANOEL LIMA RODRIGUES   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR SIDNEY DE JESUS FLORENCO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR JOSE FRANCISCO DE ANDRADE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TRANSABRIL TRANSPORTADORA ABRIL LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MARCELO HENRIQUE COSTA DA SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO LEONARDO JAMEL SALIBA DE SOUZA(OAB: 115946/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TRANSPORTES PESADOS MINAS S.A.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR FELIPE DOS SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU FCA FIAT CHRYSLER AUTOMOVEIS BRASIL LTDA.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR MAURICIO HENRIQUE FERREIRA FELIX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ILDEU ANTONIO PEREIRA(OAB: 177653/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU VIACAO SANTA EDWIGES LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO Désia Souza Santiago(OAB: 64007/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TRI CALCADOS LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ENEIAS SOUZA SANTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO Allan Kardec Saraiva(OAB: 140044/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TRANSPORTADORA RIPASE LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR TAMARA ABIGAIL MORAIS DIAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU CLINICA DENTISTA DO POVO DE BETIM LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR PEDRO RAFAEL DOS SANTOS FILHO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TUPY MINAS GERAIS LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR LUCIANO BATISTA DE MOURA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO LUIZ XAVIER MOREIRA JUNIOR(OAB: 111239/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR LEANDRO RODRIGUES LIMA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO GRAZIELE DA COSTA LAMOUNIER(OAB: 93308/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR VINICIUS MENDES DA SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO PEDRO ZATTAR EUGENIO(OAB: 128404/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU PAGSEGURO INTERNET S.A. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU NET+PHONE TELECOMUNICACOES LTDA.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR PAULO RODRIGUES DE CARVALHO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO RAPHAEL BRAGA LEMOS(OAB: 150847/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU KEITH ALFRED JOHNSON TERCEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESSADOCARTÓRIO DE REGISTRO DE IMÓVEIS DE BETIM   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR JULIANA DANIELA GOMES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO ALEXANDRE LOPES DE OLIVEIRA(OAB: 175830/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU COMERCIAL DAHANA LIMITADA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR IGOR MENDONCA MAIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO WELLISSON AMARAL E SILVA(OAB: 33908/GO) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU THE TASTE BURGUER E RESTAURANTE CONTAGEM EIRELI   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR BRENDA SUELLEN FERREIRA DE SOUZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO THAYZA LAVINIA DE ABREU(OAB: 157980/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR BRUNO DE PAULA PELLUCCI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO GUSTAVO DE AQUINO LEONARDO LOPES(OAB: 75883/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU WHITE MARTINS GASES INDUSTRIAIS LTDA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR FILIPE AUGUSTO RAFAEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO REGIS KONAT VARANI(OAB: 80059/RS) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MAZZINI ADMINISTRACAO E EMPREITAS LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR CLEONICE RODRIGUES RIBEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO BEATRIZ DE ASSIS RODRIGUES CANGUSSU(OAB: 133086/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU MUNICIPIO DE CONTAGEM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU INSTITUTO DE GESTAO E HUMANIZACAO IGH   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR FHILLIPE AUGUSTO DA SILVA CARLOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU DMA DISTRIBUIDORA S/A   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR WANDERSON PEREIRA DE ROMA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ITALO DOS SANTOS OLIVEIRA Código para aferir autenticidade deste caderno: 1972303681/2023 Tribunal Regional do Trabalho da 3ª Região 5954 Data da Disponibilização: Segunda-feira, 13 de Março de 2023   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TRANSNORTE S.A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU SARITUR SANTA RITA TRANSPORTE URBANO E RODOVIARIO LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU TRANSNORTE CARGAS E ENCOMENDAS LTDA.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR WAGNER VENANCIO MACIEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU C. P. FERREIRA CONSERVADORA EIRELI   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR FRANCISCO LAILSON DO CARMO ARAUJO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO MARCELO PINHEIRO NOCRATO(OAB: 38864/CE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU DIANA APARECIDA FERREIRA BOMFIM - ME   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOR ALEXANDER DA SILVA MEDEIROS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVOGADO Ricardo Emilio de Oliveira(OAB: 43170/MG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ROYAL PALACE SNOOKER LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉU ANTONIO DA SILVA   </t>
   </si>
 </sst>
 </file>
@@ -1022,7 +2696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B234"/>
+  <dimension ref="A1:B871"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1041,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1049,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1057,7 +2731,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1065,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1073,7 +2747,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1081,7 +2755,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1089,7 +2763,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1097,7 +2771,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1105,7 +2779,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1113,7 +2787,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1121,7 +2795,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1129,7 +2803,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1137,7 +2811,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1145,7 +2819,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1153,7 +2827,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1161,7 +2835,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1169,7 +2843,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1177,7 +2851,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1185,7 +2859,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1193,7 +2867,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1201,7 +2875,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1209,7 +2883,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1217,7 +2891,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1225,7 +2899,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1233,7 +2907,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1241,7 +2915,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1249,7 +2923,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1257,7 +2931,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1265,7 +2939,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1273,7 +2947,7 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1281,7 +2955,7 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1289,7 +2963,7 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1297,7 +2971,7 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1305,7 +2979,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1313,7 +2987,7 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1321,7 +2995,7 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1329,7 +3003,7 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1337,7 +3011,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1345,7 +3019,7 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1353,7 +3027,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1361,7 +3035,7 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1369,7 +3043,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1377,7 +3051,7 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1385,7 +3059,7 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1393,7 +3067,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1401,7 +3075,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1409,7 +3083,7 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1417,7 +3091,7 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1425,7 +3099,7 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1433,7 +3107,7 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1441,7 +3115,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1449,7 +3123,7 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1457,7 +3131,7 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1465,7 +3139,7 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1473,7 +3147,7 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1481,7 +3155,7 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1489,7 +3163,7 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1497,7 +3171,7 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1505,7 +3179,7 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1513,7 +3187,7 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1521,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1529,7 +3203,7 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1537,7 +3211,7 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1545,7 +3219,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1553,7 +3227,7 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1561,7 +3235,7 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1569,7 +3243,7 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>101</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1577,7 +3251,7 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1585,7 +3259,7 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1593,7 +3267,7 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1601,7 +3275,7 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1609,7 +3283,7 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1617,7 +3291,7 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1625,7 +3299,7 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>108</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1633,7 +3307,7 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1641,7 +3315,7 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1649,7 +3323,7 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>111</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1657,7 +3331,7 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1665,7 +3339,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1673,7 +3347,7 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1681,7 +3355,7 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1689,7 +3363,7 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1697,7 +3371,7 @@
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1705,7 +3379,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1713,7 +3387,7 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>118</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1721,7 +3395,7 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>119</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1729,7 +3403,7 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>120</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1737,7 +3411,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1745,7 +3419,7 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>121</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1753,7 +3427,7 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1761,7 +3435,7 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1769,7 +3443,7 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1777,7 +3451,7 @@
         <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1785,7 +3459,7 @@
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>125</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1793,7 +3467,7 @@
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1801,7 +3475,7 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1809,7 +3483,7 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1817,7 +3491,7 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1825,7 +3499,7 @@
         <v>18</v>
       </c>
       <c r="B100" t="s">
-        <v>129</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1833,7 +3507,7 @@
         <v>18</v>
       </c>
       <c r="B101" t="s">
-        <v>130</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1841,7 +3515,7 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1849,7 +3523,7 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>131</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1857,7 +3531,7 @@
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1865,7 +3539,7 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>133</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1873,7 +3547,7 @@
         <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>134</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1881,7 +3555,7 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1889,7 +3563,7 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>135</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1897,7 +3571,7 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>136</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1905,7 +3579,7 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1913,7 +3587,7 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>138</v>
+        <v>257</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1921,7 +3595,7 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>139</v>
+        <v>258</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1929,7 +3603,7 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1937,7 +3611,7 @@
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>140</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1945,7 +3619,7 @@
         <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>238</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1953,7 +3627,7 @@
         <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>141</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1961,7 +3635,7 @@
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1969,7 +3643,7 @@
         <v>22</v>
       </c>
       <c r="B118" t="s">
-        <v>142</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1977,7 +3651,7 @@
         <v>22</v>
       </c>
       <c r="B119" t="s">
-        <v>143</v>
+        <v>262</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1985,7 +3659,7 @@
         <v>22</v>
       </c>
       <c r="B120" t="s">
-        <v>144</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1993,7 +3667,7 @@
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2001,7 +3675,7 @@
         <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>145</v>
+        <v>264</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2009,7 +3683,7 @@
         <v>23</v>
       </c>
       <c r="B123" t="s">
-        <v>146</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2017,7 +3691,7 @@
         <v>23</v>
       </c>
       <c r="B124" t="s">
-        <v>147</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2025,7 +3699,7 @@
         <v>23</v>
       </c>
       <c r="B125" t="s">
-        <v>148</v>
+        <v>267</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2033,7 +3707,7 @@
         <v>23</v>
       </c>
       <c r="B126" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2041,7 +3715,7 @@
         <v>23</v>
       </c>
       <c r="B127" t="s">
-        <v>150</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2049,7 +3723,7 @@
         <v>23</v>
       </c>
       <c r="B128" t="s">
-        <v>151</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2057,7 +3731,7 @@
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2065,7 +3739,7 @@
         <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>152</v>
+        <v>271</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2073,7 +3747,7 @@
         <v>24</v>
       </c>
       <c r="B131" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2081,7 +3755,7 @@
         <v>24</v>
       </c>
       <c r="B132" t="s">
-        <v>154</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2089,7 +3763,7 @@
         <v>24</v>
       </c>
       <c r="B133" t="s">
-        <v>155</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2097,7 +3771,7 @@
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2105,7 +3779,7 @@
         <v>25</v>
       </c>
       <c r="B135" t="s">
-        <v>156</v>
+        <v>275</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2113,7 +3787,7 @@
         <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>157</v>
+        <v>276</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2121,7 +3795,7 @@
         <v>25</v>
       </c>
       <c r="B137" t="s">
-        <v>158</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2129,7 +3803,7 @@
         <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2137,7 +3811,7 @@
         <v>26</v>
       </c>
       <c r="B139" t="s">
-        <v>159</v>
+        <v>278</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2145,7 +3819,7 @@
         <v>26</v>
       </c>
       <c r="B140" t="s">
-        <v>160</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2153,7 +3827,7 @@
         <v>26</v>
       </c>
       <c r="B141" t="s">
-        <v>161</v>
+        <v>280</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2161,7 +3835,7 @@
         <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2169,7 +3843,7 @@
         <v>27</v>
       </c>
       <c r="B143" t="s">
-        <v>162</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2177,7 +3851,7 @@
         <v>27</v>
       </c>
       <c r="B144" t="s">
-        <v>163</v>
+        <v>282</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2185,7 +3859,7 @@
         <v>27</v>
       </c>
       <c r="B145" t="s">
-        <v>164</v>
+        <v>283</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2193,7 +3867,7 @@
         <v>27</v>
       </c>
       <c r="B146" t="s">
-        <v>165</v>
+        <v>284</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2201,7 +3875,7 @@
         <v>27</v>
       </c>
       <c r="B147" t="s">
-        <v>166</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2209,7 +3883,7 @@
         <v>27</v>
       </c>
       <c r="B148" t="s">
-        <v>167</v>
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2217,7 +3891,7 @@
         <v>3</v>
       </c>
       <c r="B149" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2225,7 +3899,7 @@
         <v>28</v>
       </c>
       <c r="B150" t="s">
-        <v>145</v>
+        <v>264</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2233,7 +3907,7 @@
         <v>28</v>
       </c>
       <c r="B151" t="s">
-        <v>146</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2241,7 +3915,7 @@
         <v>28</v>
       </c>
       <c r="B152" t="s">
-        <v>147</v>
+        <v>266</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2249,7 +3923,7 @@
         <v>28</v>
       </c>
       <c r="B153" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2257,7 +3931,7 @@
         <v>28</v>
       </c>
       <c r="B154" t="s">
-        <v>150</v>
+        <v>269</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2265,7 +3939,7 @@
         <v>28</v>
       </c>
       <c r="B155" t="s">
-        <v>151</v>
+        <v>270</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2273,7 +3947,7 @@
         <v>3</v>
       </c>
       <c r="B156" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2281,7 +3955,7 @@
         <v>29</v>
       </c>
       <c r="B157" t="s">
-        <v>168</v>
+        <v>287</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2289,7 +3963,7 @@
         <v>29</v>
       </c>
       <c r="B158" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2297,7 +3971,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>126</v>
+        <v>245</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2305,7 +3979,7 @@
         <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2313,7 +3987,7 @@
         <v>30</v>
       </c>
       <c r="B161" t="s">
-        <v>170</v>
+        <v>289</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2321,7 +3995,7 @@
         <v>30</v>
       </c>
       <c r="B162" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2329,7 +4003,7 @@
         <v>30</v>
       </c>
       <c r="B163" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2337,7 +4011,7 @@
         <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2345,7 +4019,7 @@
         <v>31</v>
       </c>
       <c r="B165" t="s">
-        <v>171</v>
+        <v>290</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2353,7 +4027,7 @@
         <v>31</v>
       </c>
       <c r="B166" t="s">
-        <v>172</v>
+        <v>291</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2361,7 +4035,7 @@
         <v>31</v>
       </c>
       <c r="B167" t="s">
-        <v>173</v>
+        <v>292</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2369,7 +4043,7 @@
         <v>31</v>
       </c>
       <c r="B168" t="s">
-        <v>174</v>
+        <v>293</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2377,7 +4051,7 @@
         <v>31</v>
       </c>
       <c r="B169" t="s">
-        <v>175</v>
+        <v>294</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2385,7 +4059,7 @@
         <v>31</v>
       </c>
       <c r="B170" t="s">
-        <v>176</v>
+        <v>295</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2393,7 +4067,7 @@
         <v>3</v>
       </c>
       <c r="B171" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2401,7 +4075,7 @@
         <v>32</v>
       </c>
       <c r="B172" t="s">
-        <v>177</v>
+        <v>296</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2409,7 +4083,7 @@
         <v>32</v>
       </c>
       <c r="B173" t="s">
-        <v>178</v>
+        <v>297</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2417,7 +4091,7 @@
         <v>32</v>
       </c>
       <c r="B174" t="s">
-        <v>179</v>
+        <v>298</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2425,7 +4099,7 @@
         <v>3</v>
       </c>
       <c r="B175" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2433,7 +4107,7 @@
         <v>33</v>
       </c>
       <c r="B176" t="s">
-        <v>171</v>
+        <v>290</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2441,7 +4115,7 @@
         <v>33</v>
       </c>
       <c r="B177" t="s">
-        <v>172</v>
+        <v>291</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2449,7 +4123,7 @@
         <v>33</v>
       </c>
       <c r="B178" t="s">
-        <v>173</v>
+        <v>292</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2457,7 +4131,7 @@
         <v>33</v>
       </c>
       <c r="B179" t="s">
-        <v>174</v>
+        <v>293</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2465,7 +4139,7 @@
         <v>33</v>
       </c>
       <c r="B180" t="s">
-        <v>175</v>
+        <v>294</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2473,7 +4147,7 @@
         <v>33</v>
       </c>
       <c r="B181" t="s">
-        <v>176</v>
+        <v>295</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2481,7 +4155,7 @@
         <v>3</v>
       </c>
       <c r="B182" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2489,7 +4163,7 @@
         <v>34</v>
       </c>
       <c r="B183" t="s">
-        <v>180</v>
+        <v>299</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2497,7 +4171,7 @@
         <v>34</v>
       </c>
       <c r="B184" t="s">
-        <v>84</v>
+        <v>203</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2505,7 +4179,7 @@
         <v>34</v>
       </c>
       <c r="B185" t="s">
-        <v>181</v>
+        <v>300</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2513,7 +4187,7 @@
         <v>34</v>
       </c>
       <c r="B186" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2521,7 +4195,7 @@
         <v>34</v>
       </c>
       <c r="B187" t="s">
-        <v>182</v>
+        <v>301</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2529,7 +4203,7 @@
         <v>3</v>
       </c>
       <c r="B188" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2537,7 +4211,7 @@
         <v>35</v>
       </c>
       <c r="B189" t="s">
-        <v>183</v>
+        <v>302</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2545,7 +4219,7 @@
         <v>35</v>
       </c>
       <c r="B190" t="s">
-        <v>84</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2553,7 +4227,7 @@
         <v>35</v>
       </c>
       <c r="B191" t="s">
-        <v>184</v>
+        <v>303</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2561,7 +4235,7 @@
         <v>35</v>
       </c>
       <c r="B192" t="s">
-        <v>185</v>
+        <v>304</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2569,7 +4243,7 @@
         <v>35</v>
       </c>
       <c r="B193" t="s">
-        <v>186</v>
+        <v>305</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2577,7 +4251,7 @@
         <v>3</v>
       </c>
       <c r="B194" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2585,7 +4259,7 @@
         <v>36</v>
       </c>
       <c r="B195" t="s">
-        <v>187</v>
+        <v>306</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2593,7 +4267,7 @@
         <v>36</v>
       </c>
       <c r="B196" t="s">
-        <v>188</v>
+        <v>307</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2601,7 +4275,7 @@
         <v>36</v>
       </c>
       <c r="B197" t="s">
-        <v>189</v>
+        <v>308</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2609,7 +4283,7 @@
         <v>36</v>
       </c>
       <c r="B198" t="s">
-        <v>190</v>
+        <v>309</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2617,7 +4291,7 @@
         <v>36</v>
       </c>
       <c r="B199" t="s">
-        <v>191</v>
+        <v>310</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2625,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="B200" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2633,7 +4307,7 @@
         <v>37</v>
       </c>
       <c r="B201" t="s">
-        <v>192</v>
+        <v>311</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2641,7 +4315,7 @@
         <v>37</v>
       </c>
       <c r="B202" t="s">
-        <v>193</v>
+        <v>312</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2649,7 +4323,7 @@
         <v>37</v>
       </c>
       <c r="B203" t="s">
-        <v>77</v>
+        <v>196</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2657,7 +4331,7 @@
         <v>3</v>
       </c>
       <c r="B204" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2665,7 +4339,7 @@
         <v>38</v>
       </c>
       <c r="B205" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2673,7 +4347,7 @@
         <v>38</v>
       </c>
       <c r="B206" t="s">
-        <v>195</v>
+        <v>314</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2681,7 +4355,7 @@
         <v>38</v>
       </c>
       <c r="B207" t="s">
-        <v>196</v>
+        <v>315</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2689,7 +4363,7 @@
         <v>38</v>
       </c>
       <c r="B208" t="s">
-        <v>197</v>
+        <v>316</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2697,7 +4371,7 @@
         <v>3</v>
       </c>
       <c r="B209" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2705,7 +4379,7 @@
         <v>39</v>
       </c>
       <c r="B210" t="s">
-        <v>198</v>
+        <v>317</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2713,7 +4387,7 @@
         <v>39</v>
       </c>
       <c r="B211" t="s">
-        <v>199</v>
+        <v>318</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2721,7 +4395,7 @@
         <v>39</v>
       </c>
       <c r="B212" t="s">
-        <v>200</v>
+        <v>319</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2729,7 +4403,7 @@
         <v>39</v>
       </c>
       <c r="B213" t="s">
-        <v>201</v>
+        <v>320</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2737,7 +4411,7 @@
         <v>3</v>
       </c>
       <c r="B214" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2745,7 +4419,7 @@
         <v>40</v>
       </c>
       <c r="B215" t="s">
-        <v>202</v>
+        <v>321</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2753,7 +4427,7 @@
         <v>40</v>
       </c>
       <c r="B216" t="s">
-        <v>203</v>
+        <v>322</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2761,7 +4435,7 @@
         <v>3</v>
       </c>
       <c r="B217" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2769,7 +4443,7 @@
         <v>41</v>
       </c>
       <c r="B218" t="s">
-        <v>204</v>
+        <v>323</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2777,7 +4451,7 @@
         <v>41</v>
       </c>
       <c r="B219" t="s">
-        <v>205</v>
+        <v>324</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2785,7 +4459,7 @@
         <v>41</v>
       </c>
       <c r="B220" t="s">
-        <v>206</v>
+        <v>325</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2793,7 +4467,7 @@
         <v>3</v>
       </c>
       <c r="B221" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2801,7 +4475,7 @@
         <v>42</v>
       </c>
       <c r="B222" t="s">
-        <v>207</v>
+        <v>326</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2809,7 +4483,7 @@
         <v>42</v>
       </c>
       <c r="B223" t="s">
-        <v>208</v>
+        <v>327</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2817,7 +4491,7 @@
         <v>42</v>
       </c>
       <c r="B224" t="s">
-        <v>209</v>
+        <v>328</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2825,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="B225" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2833,7 +4507,7 @@
         <v>43</v>
       </c>
       <c r="B226" t="s">
-        <v>210</v>
+        <v>329</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2841,7 +4515,7 @@
         <v>43</v>
       </c>
       <c r="B227" t="s">
-        <v>211</v>
+        <v>330</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2849,7 +4523,7 @@
         <v>43</v>
       </c>
       <c r="B228" t="s">
-        <v>212</v>
+        <v>331</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2857,7 +4531,7 @@
         <v>3</v>
       </c>
       <c r="B229" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2865,7 +4539,7 @@
         <v>44</v>
       </c>
       <c r="B230" t="s">
-        <v>213</v>
+        <v>332</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2873,7 +4547,7 @@
         <v>44</v>
       </c>
       <c r="B231" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2881,7 +4555,7 @@
         <v>44</v>
       </c>
       <c r="B232" t="s">
-        <v>215</v>
+        <v>334</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2889,7 +4563,7 @@
         <v>44</v>
       </c>
       <c r="B233" t="s">
-        <v>216</v>
+        <v>335</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2897,7 +4571,5103 @@
         <v>3</v>
       </c>
       <c r="B234" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>45</v>
+      </c>
+      <c r="B235" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>45</v>
+      </c>
+      <c r="B236" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>45</v>
+      </c>
+      <c r="B237" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>3</v>
+      </c>
+      <c r="B238" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>46</v>
+      </c>
+      <c r="B239" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>46</v>
+      </c>
+      <c r="B240" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>46</v>
+      </c>
+      <c r="B241" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>46</v>
+      </c>
+      <c r="B242" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>46</v>
+      </c>
+      <c r="B243" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>46</v>
+      </c>
+      <c r="B244" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>46</v>
+      </c>
+      <c r="B245" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>46</v>
+      </c>
+      <c r="B246" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>46</v>
+      </c>
+      <c r="B247" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>46</v>
+      </c>
+      <c r="B248" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>3</v>
+      </c>
+      <c r="B249" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>47</v>
+      </c>
+      <c r="B250" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>47</v>
+      </c>
+      <c r="B251" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>47</v>
+      </c>
+      <c r="B252" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>47</v>
+      </c>
+      <c r="B253" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>3</v>
+      </c>
+      <c r="B254" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>48</v>
+      </c>
+      <c r="B255" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>48</v>
+      </c>
+      <c r="B256" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>48</v>
+      </c>
+      <c r="B257" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>48</v>
+      </c>
+      <c r="B258" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>48</v>
+      </c>
+      <c r="B259" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>3</v>
+      </c>
+      <c r="B260" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>49</v>
+      </c>
+      <c r="B261" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>49</v>
+      </c>
+      <c r="B262" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>49</v>
+      </c>
+      <c r="B263" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>3</v>
+      </c>
+      <c r="B264" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>50</v>
+      </c>
+      <c r="B265" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>50</v>
+      </c>
+      <c r="B266" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>50</v>
+      </c>
+      <c r="B267" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>50</v>
+      </c>
+      <c r="B268" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>3</v>
+      </c>
+      <c r="B269" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>51</v>
+      </c>
+      <c r="B270" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>51</v>
+      </c>
+      <c r="B271" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>51</v>
+      </c>
+      <c r="B272" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>51</v>
+      </c>
+      <c r="B273" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>51</v>
+      </c>
+      <c r="B274" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>3</v>
+      </c>
+      <c r="B275" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
         <v>52</v>
+      </c>
+      <c r="B276" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>52</v>
+      </c>
+      <c r="B277" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>52</v>
+      </c>
+      <c r="B278" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>52</v>
+      </c>
+      <c r="B279" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>3</v>
+      </c>
+      <c r="B280" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>53</v>
+      </c>
+      <c r="B281" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>53</v>
+      </c>
+      <c r="B282" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>53</v>
+      </c>
+      <c r="B283" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>53</v>
+      </c>
+      <c r="B284" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>53</v>
+      </c>
+      <c r="B285" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>3</v>
+      </c>
+      <c r="B286" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>54</v>
+      </c>
+      <c r="B287" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>54</v>
+      </c>
+      <c r="B288" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>54</v>
+      </c>
+      <c r="B289" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>54</v>
+      </c>
+      <c r="B290" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>54</v>
+      </c>
+      <c r="B291" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>54</v>
+      </c>
+      <c r="B292" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>54</v>
+      </c>
+      <c r="B293" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>54</v>
+      </c>
+      <c r="B294" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>54</v>
+      </c>
+      <c r="B295" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>3</v>
+      </c>
+      <c r="B296" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>55</v>
+      </c>
+      <c r="B297" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>55</v>
+      </c>
+      <c r="B298" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>55</v>
+      </c>
+      <c r="B299" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>55</v>
+      </c>
+      <c r="B300" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>55</v>
+      </c>
+      <c r="B301" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>55</v>
+      </c>
+      <c r="B302" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>55</v>
+      </c>
+      <c r="B303" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>3</v>
+      </c>
+      <c r="B304" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>56</v>
+      </c>
+      <c r="B305" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>56</v>
+      </c>
+      <c r="B306" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>56</v>
+      </c>
+      <c r="B307" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>56</v>
+      </c>
+      <c r="B308" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>56</v>
+      </c>
+      <c r="B309" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>3</v>
+      </c>
+      <c r="B310" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>57</v>
+      </c>
+      <c r="B311" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>57</v>
+      </c>
+      <c r="B312" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>57</v>
+      </c>
+      <c r="B313" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>3</v>
+      </c>
+      <c r="B314" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>58</v>
+      </c>
+      <c r="B315" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>58</v>
+      </c>
+      <c r="B316" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>58</v>
+      </c>
+      <c r="B317" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>3</v>
+      </c>
+      <c r="B318" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>59</v>
+      </c>
+      <c r="B319" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>59</v>
+      </c>
+      <c r="B320" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>59</v>
+      </c>
+      <c r="B321" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>59</v>
+      </c>
+      <c r="B322" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>3</v>
+      </c>
+      <c r="B323" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>60</v>
+      </c>
+      <c r="B324" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>60</v>
+      </c>
+      <c r="B325" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>60</v>
+      </c>
+      <c r="B326" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>60</v>
+      </c>
+      <c r="B327" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>60</v>
+      </c>
+      <c r="B328" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>60</v>
+      </c>
+      <c r="B329" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>60</v>
+      </c>
+      <c r="B330" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>60</v>
+      </c>
+      <c r="B331" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>60</v>
+      </c>
+      <c r="B332" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>60</v>
+      </c>
+      <c r="B333" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>60</v>
+      </c>
+      <c r="B334" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>60</v>
+      </c>
+      <c r="B335" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>60</v>
+      </c>
+      <c r="B336" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>60</v>
+      </c>
+      <c r="B337" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>60</v>
+      </c>
+      <c r="B338" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>60</v>
+      </c>
+      <c r="B339" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>60</v>
+      </c>
+      <c r="B340" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>60</v>
+      </c>
+      <c r="B341" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>60</v>
+      </c>
+      <c r="B342" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>3</v>
+      </c>
+      <c r="B343" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>61</v>
+      </c>
+      <c r="B344" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>61</v>
+      </c>
+      <c r="B345" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>61</v>
+      </c>
+      <c r="B346" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>61</v>
+      </c>
+      <c r="B347" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>3</v>
+      </c>
+      <c r="B348" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>62</v>
+      </c>
+      <c r="B349" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>62</v>
+      </c>
+      <c r="B350" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>62</v>
+      </c>
+      <c r="B351" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>3</v>
+      </c>
+      <c r="B352" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>63</v>
+      </c>
+      <c r="B353" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>63</v>
+      </c>
+      <c r="B354" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>63</v>
+      </c>
+      <c r="B355" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>3</v>
+      </c>
+      <c r="B356" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>64</v>
+      </c>
+      <c r="B357" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>64</v>
+      </c>
+      <c r="B358" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>64</v>
+      </c>
+      <c r="B359" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>64</v>
+      </c>
+      <c r="B360" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>3</v>
+      </c>
+      <c r="B361" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>65</v>
+      </c>
+      <c r="B362" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>65</v>
+      </c>
+      <c r="B363" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>65</v>
+      </c>
+      <c r="B364" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>65</v>
+      </c>
+      <c r="B365" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>65</v>
+      </c>
+      <c r="B366" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>65</v>
+      </c>
+      <c r="B367" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>65</v>
+      </c>
+      <c r="B368" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>65</v>
+      </c>
+      <c r="B369" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>65</v>
+      </c>
+      <c r="B370" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>65</v>
+      </c>
+      <c r="B371" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>65</v>
+      </c>
+      <c r="B372" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>65</v>
+      </c>
+      <c r="B373" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>3</v>
+      </c>
+      <c r="B374" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>66</v>
+      </c>
+      <c r="B375" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>66</v>
+      </c>
+      <c r="B376" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>66</v>
+      </c>
+      <c r="B377" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>66</v>
+      </c>
+      <c r="B378" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>3</v>
+      </c>
+      <c r="B379" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>67</v>
+      </c>
+      <c r="B380" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>67</v>
+      </c>
+      <c r="B381" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>67</v>
+      </c>
+      <c r="B382" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>67</v>
+      </c>
+      <c r="B383" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>67</v>
+      </c>
+      <c r="B384" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>3</v>
+      </c>
+      <c r="B385" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>68</v>
+      </c>
+      <c r="B386" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>68</v>
+      </c>
+      <c r="B387" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>68</v>
+      </c>
+      <c r="B388" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
+        <v>3</v>
+      </c>
+      <c r="B389" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>69</v>
+      </c>
+      <c r="B390" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>69</v>
+      </c>
+      <c r="B391" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>69</v>
+      </c>
+      <c r="B392" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>69</v>
+      </c>
+      <c r="B393" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>3</v>
+      </c>
+      <c r="B394" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>70</v>
+      </c>
+      <c r="B395" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>70</v>
+      </c>
+      <c r="B396" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
+        <v>70</v>
+      </c>
+      <c r="B397" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
+        <v>3</v>
+      </c>
+      <c r="B398" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
+        <v>71</v>
+      </c>
+      <c r="B399" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
+        <v>71</v>
+      </c>
+      <c r="B400" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
+        <v>71</v>
+      </c>
+      <c r="B401" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>3</v>
+      </c>
+      <c r="B402" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>72</v>
+      </c>
+      <c r="B403" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
+        <v>72</v>
+      </c>
+      <c r="B404" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
+        <v>72</v>
+      </c>
+      <c r="B405" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
+        <v>3</v>
+      </c>
+      <c r="B406" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
+        <v>73</v>
+      </c>
+      <c r="B407" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
+        <v>73</v>
+      </c>
+      <c r="B408" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
+        <v>73</v>
+      </c>
+      <c r="B409" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
+        <v>3</v>
+      </c>
+      <c r="B410" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" t="s">
+        <v>74</v>
+      </c>
+      <c r="B411" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
+        <v>74</v>
+      </c>
+      <c r="B412" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" t="s">
+        <v>74</v>
+      </c>
+      <c r="B413" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
+        <v>3</v>
+      </c>
+      <c r="B414" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" t="s">
+        <v>75</v>
+      </c>
+      <c r="B415" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" t="s">
+        <v>75</v>
+      </c>
+      <c r="B416" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
+        <v>75</v>
+      </c>
+      <c r="B417" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
+        <v>3</v>
+      </c>
+      <c r="B418" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
+        <v>76</v>
+      </c>
+      <c r="B419" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" t="s">
+        <v>76</v>
+      </c>
+      <c r="B420" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" t="s">
+        <v>76</v>
+      </c>
+      <c r="B421" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
+        <v>3</v>
+      </c>
+      <c r="B422" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
+        <v>77</v>
+      </c>
+      <c r="B423" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
+        <v>77</v>
+      </c>
+      <c r="B424" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" t="s">
+        <v>77</v>
+      </c>
+      <c r="B425" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" t="s">
+        <v>3</v>
+      </c>
+      <c r="B426" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" t="s">
+        <v>78</v>
+      </c>
+      <c r="B427" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" t="s">
+        <v>78</v>
+      </c>
+      <c r="B428" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" t="s">
+        <v>78</v>
+      </c>
+      <c r="B429" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" t="s">
+        <v>78</v>
+      </c>
+      <c r="B430" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" t="s">
+        <v>3</v>
+      </c>
+      <c r="B431" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" t="s">
+        <v>79</v>
+      </c>
+      <c r="B432" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" t="s">
+        <v>79</v>
+      </c>
+      <c r="B433" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" t="s">
+        <v>79</v>
+      </c>
+      <c r="B434" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" t="s">
+        <v>79</v>
+      </c>
+      <c r="B435" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" t="s">
+        <v>79</v>
+      </c>
+      <c r="B436" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" t="s">
+        <v>79</v>
+      </c>
+      <c r="B437" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" t="s">
+        <v>79</v>
+      </c>
+      <c r="B438" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" t="s">
+        <v>79</v>
+      </c>
+      <c r="B439" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" t="s">
+        <v>79</v>
+      </c>
+      <c r="B440" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" t="s">
+        <v>79</v>
+      </c>
+      <c r="B441" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" t="s">
+        <v>3</v>
+      </c>
+      <c r="B442" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" t="s">
+        <v>80</v>
+      </c>
+      <c r="B443" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" t="s">
+        <v>80</v>
+      </c>
+      <c r="B444" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" t="s">
+        <v>80</v>
+      </c>
+      <c r="B445" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" t="s">
+        <v>80</v>
+      </c>
+      <c r="B446" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" t="s">
+        <v>3</v>
+      </c>
+      <c r="B447" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" t="s">
+        <v>81</v>
+      </c>
+      <c r="B448" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" t="s">
+        <v>81</v>
+      </c>
+      <c r="B449" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" t="s">
+        <v>81</v>
+      </c>
+      <c r="B450" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" t="s">
+        <v>81</v>
+      </c>
+      <c r="B451" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" t="s">
+        <v>81</v>
+      </c>
+      <c r="B452" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" t="s">
+        <v>81</v>
+      </c>
+      <c r="B453" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" t="s">
+        <v>3</v>
+      </c>
+      <c r="B454" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" t="s">
+        <v>82</v>
+      </c>
+      <c r="B455" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" t="s">
+        <v>82</v>
+      </c>
+      <c r="B456" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" t="s">
+        <v>82</v>
+      </c>
+      <c r="B457" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" t="s">
+        <v>82</v>
+      </c>
+      <c r="B458" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" t="s">
+        <v>82</v>
+      </c>
+      <c r="B459" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" t="s">
+        <v>3</v>
+      </c>
+      <c r="B460" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" t="s">
+        <v>83</v>
+      </c>
+      <c r="B461" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" t="s">
+        <v>83</v>
+      </c>
+      <c r="B462" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" t="s">
+        <v>83</v>
+      </c>
+      <c r="B463" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" t="s">
+        <v>3</v>
+      </c>
+      <c r="B464" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" t="s">
+        <v>84</v>
+      </c>
+      <c r="B465" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" t="s">
+        <v>84</v>
+      </c>
+      <c r="B466" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" t="s">
+        <v>84</v>
+      </c>
+      <c r="B467" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" t="s">
+        <v>84</v>
+      </c>
+      <c r="B468" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" t="s">
+        <v>84</v>
+      </c>
+      <c r="B469" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" t="s">
+        <v>84</v>
+      </c>
+      <c r="B470" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" t="s">
+        <v>84</v>
+      </c>
+      <c r="B471" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" t="s">
+        <v>84</v>
+      </c>
+      <c r="B472" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" t="s">
+        <v>84</v>
+      </c>
+      <c r="B473" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" t="s">
+        <v>84</v>
+      </c>
+      <c r="B474" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" t="s">
+        <v>84</v>
+      </c>
+      <c r="B475" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" t="s">
+        <v>3</v>
+      </c>
+      <c r="B476" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" t="s">
+        <v>85</v>
+      </c>
+      <c r="B477" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" t="s">
+        <v>85</v>
+      </c>
+      <c r="B478" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" t="s">
+        <v>85</v>
+      </c>
+      <c r="B479" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" t="s">
+        <v>85</v>
+      </c>
+      <c r="B480" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" t="s">
+        <v>85</v>
+      </c>
+      <c r="B481" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" t="s">
+        <v>3</v>
+      </c>
+      <c r="B482" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" t="s">
+        <v>86</v>
+      </c>
+      <c r="B483" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" t="s">
+        <v>86</v>
+      </c>
+      <c r="B484" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" t="s">
+        <v>86</v>
+      </c>
+      <c r="B485" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" t="s">
+        <v>3</v>
+      </c>
+      <c r="B486" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" t="s">
+        <v>87</v>
+      </c>
+      <c r="B487" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" t="s">
+        <v>87</v>
+      </c>
+      <c r="B488" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" t="s">
+        <v>87</v>
+      </c>
+      <c r="B489" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" t="s">
+        <v>3</v>
+      </c>
+      <c r="B490" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" t="s">
+        <v>88</v>
+      </c>
+      <c r="B491" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" t="s">
+        <v>88</v>
+      </c>
+      <c r="B492" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" t="s">
+        <v>88</v>
+      </c>
+      <c r="B493" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" t="s">
+        <v>3</v>
+      </c>
+      <c r="B494" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" t="s">
+        <v>89</v>
+      </c>
+      <c r="B495" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" t="s">
+        <v>89</v>
+      </c>
+      <c r="B496" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" t="s">
+        <v>3</v>
+      </c>
+      <c r="B497" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" t="s">
+        <v>90</v>
+      </c>
+      <c r="B498" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" t="s">
+        <v>90</v>
+      </c>
+      <c r="B499" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" t="s">
+        <v>90</v>
+      </c>
+      <c r="B500" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" t="s">
+        <v>90</v>
+      </c>
+      <c r="B501" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" t="s">
+        <v>3</v>
+      </c>
+      <c r="B502" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" t="s">
+        <v>91</v>
+      </c>
+      <c r="B503" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" t="s">
+        <v>91</v>
+      </c>
+      <c r="B504" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" t="s">
+        <v>91</v>
+      </c>
+      <c r="B505" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" t="s">
+        <v>3</v>
+      </c>
+      <c r="B506" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" t="s">
+        <v>92</v>
+      </c>
+      <c r="B507" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" t="s">
+        <v>92</v>
+      </c>
+      <c r="B508" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" t="s">
+        <v>92</v>
+      </c>
+      <c r="B509" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" t="s">
+        <v>92</v>
+      </c>
+      <c r="B510" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" t="s">
+        <v>3</v>
+      </c>
+      <c r="B511" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" t="s">
+        <v>93</v>
+      </c>
+      <c r="B512" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" t="s">
+        <v>93</v>
+      </c>
+      <c r="B513" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" t="s">
+        <v>93</v>
+      </c>
+      <c r="B514" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" t="s">
+        <v>3</v>
+      </c>
+      <c r="B515" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" t="s">
+        <v>94</v>
+      </c>
+      <c r="B516" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" t="s">
+        <v>94</v>
+      </c>
+      <c r="B517" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" t="s">
+        <v>94</v>
+      </c>
+      <c r="B518" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" t="s">
+        <v>94</v>
+      </c>
+      <c r="B519" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" t="s">
+        <v>3</v>
+      </c>
+      <c r="B520" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" t="s">
+        <v>95</v>
+      </c>
+      <c r="B521" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" t="s">
+        <v>95</v>
+      </c>
+      <c r="B522" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" t="s">
+        <v>3</v>
+      </c>
+      <c r="B523" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" t="s">
+        <v>96</v>
+      </c>
+      <c r="B524" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" t="s">
+        <v>96</v>
+      </c>
+      <c r="B525" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" t="s">
+        <v>96</v>
+      </c>
+      <c r="B526" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" t="s">
+        <v>96</v>
+      </c>
+      <c r="B527" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" t="s">
+        <v>96</v>
+      </c>
+      <c r="B528" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" t="s">
+        <v>3</v>
+      </c>
+      <c r="B529" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" t="s">
+        <v>97</v>
+      </c>
+      <c r="B530" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" t="s">
+        <v>97</v>
+      </c>
+      <c r="B531" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" t="s">
+        <v>97</v>
+      </c>
+      <c r="B532" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" t="s">
+        <v>97</v>
+      </c>
+      <c r="B533" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" t="s">
+        <v>97</v>
+      </c>
+      <c r="B534" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" t="s">
+        <v>97</v>
+      </c>
+      <c r="B535" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" t="s">
+        <v>97</v>
+      </c>
+      <c r="B536" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" t="s">
+        <v>97</v>
+      </c>
+      <c r="B537" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" t="s">
+        <v>97</v>
+      </c>
+      <c r="B538" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" t="s">
+        <v>97</v>
+      </c>
+      <c r="B539" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" t="s">
+        <v>3</v>
+      </c>
+      <c r="B540" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" t="s">
+        <v>98</v>
+      </c>
+      <c r="B541" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" t="s">
+        <v>98</v>
+      </c>
+      <c r="B542" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" t="s">
+        <v>98</v>
+      </c>
+      <c r="B543" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" t="s">
+        <v>98</v>
+      </c>
+      <c r="B544" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" t="s">
+        <v>3</v>
+      </c>
+      <c r="B545" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" t="s">
+        <v>99</v>
+      </c>
+      <c r="B546" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" t="s">
+        <v>99</v>
+      </c>
+      <c r="B547" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" t="s">
+        <v>99</v>
+      </c>
+      <c r="B548" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" t="s">
+        <v>3</v>
+      </c>
+      <c r="B549" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" t="s">
+        <v>100</v>
+      </c>
+      <c r="B550" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" t="s">
+        <v>100</v>
+      </c>
+      <c r="B551" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" t="s">
+        <v>100</v>
+      </c>
+      <c r="B552" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" t="s">
+        <v>3</v>
+      </c>
+      <c r="B553" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" t="s">
+        <v>101</v>
+      </c>
+      <c r="B554" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" t="s">
+        <v>101</v>
+      </c>
+      <c r="B555" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" t="s">
+        <v>101</v>
+      </c>
+      <c r="B556" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" t="s">
+        <v>101</v>
+      </c>
+      <c r="B557" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" t="s">
+        <v>101</v>
+      </c>
+      <c r="B558" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" t="s">
+        <v>101</v>
+      </c>
+      <c r="B559" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" t="s">
+        <v>3</v>
+      </c>
+      <c r="B560" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" t="s">
+        <v>102</v>
+      </c>
+      <c r="B561" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" t="s">
+        <v>102</v>
+      </c>
+      <c r="B562" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" t="s">
+        <v>102</v>
+      </c>
+      <c r="B563" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" t="s">
+        <v>102</v>
+      </c>
+      <c r="B564" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" t="s">
+        <v>3</v>
+      </c>
+      <c r="B565" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" t="s">
+        <v>103</v>
+      </c>
+      <c r="B566" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" t="s">
+        <v>103</v>
+      </c>
+      <c r="B567" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" t="s">
+        <v>103</v>
+      </c>
+      <c r="B568" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" t="s">
+        <v>3</v>
+      </c>
+      <c r="B569" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" t="s">
+        <v>104</v>
+      </c>
+      <c r="B570" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" t="s">
+        <v>104</v>
+      </c>
+      <c r="B571" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" t="s">
+        <v>104</v>
+      </c>
+      <c r="B572" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" t="s">
+        <v>3</v>
+      </c>
+      <c r="B573" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" t="s">
+        <v>105</v>
+      </c>
+      <c r="B574" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" t="s">
+        <v>105</v>
+      </c>
+      <c r="B575" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" t="s">
+        <v>105</v>
+      </c>
+      <c r="B576" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" t="s">
+        <v>3</v>
+      </c>
+      <c r="B577" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" t="s">
+        <v>106</v>
+      </c>
+      <c r="B578" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" t="s">
+        <v>106</v>
+      </c>
+      <c r="B579" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" t="s">
+        <v>106</v>
+      </c>
+      <c r="B580" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" t="s">
+        <v>106</v>
+      </c>
+      <c r="B581" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" t="s">
+        <v>106</v>
+      </c>
+      <c r="B582" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" t="s">
+        <v>106</v>
+      </c>
+      <c r="B583" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" t="s">
+        <v>106</v>
+      </c>
+      <c r="B584" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" t="s">
+        <v>106</v>
+      </c>
+      <c r="B585" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" t="s">
+        <v>106</v>
+      </c>
+      <c r="B586" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" t="s">
+        <v>106</v>
+      </c>
+      <c r="B587" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" t="s">
+        <v>3</v>
+      </c>
+      <c r="B588" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" t="s">
+        <v>107</v>
+      </c>
+      <c r="B589" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" t="s">
+        <v>107</v>
+      </c>
+      <c r="B590" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" t="s">
+        <v>107</v>
+      </c>
+      <c r="B591" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" t="s">
+        <v>107</v>
+      </c>
+      <c r="B592" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" t="s">
+        <v>107</v>
+      </c>
+      <c r="B593" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" t="s">
+        <v>107</v>
+      </c>
+      <c r="B594" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" t="s">
+        <v>107</v>
+      </c>
+      <c r="B595" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" t="s">
+        <v>107</v>
+      </c>
+      <c r="B596" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" t="s">
+        <v>107</v>
+      </c>
+      <c r="B597" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" t="s">
+        <v>107</v>
+      </c>
+      <c r="B598" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" t="s">
+        <v>107</v>
+      </c>
+      <c r="B599" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" t="s">
+        <v>107</v>
+      </c>
+      <c r="B600" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" t="s">
+        <v>3</v>
+      </c>
+      <c r="B601" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" t="s">
+        <v>108</v>
+      </c>
+      <c r="B602" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" t="s">
+        <v>108</v>
+      </c>
+      <c r="B603" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" t="s">
+        <v>108</v>
+      </c>
+      <c r="B604" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" t="s">
+        <v>3</v>
+      </c>
+      <c r="B605" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" t="s">
+        <v>109</v>
+      </c>
+      <c r="B606" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" t="s">
+        <v>109</v>
+      </c>
+      <c r="B607" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" t="s">
+        <v>109</v>
+      </c>
+      <c r="B608" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" t="s">
+        <v>3</v>
+      </c>
+      <c r="B609" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" t="s">
+        <v>110</v>
+      </c>
+      <c r="B610" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" t="s">
+        <v>110</v>
+      </c>
+      <c r="B611" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" t="s">
+        <v>110</v>
+      </c>
+      <c r="B612" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" t="s">
+        <v>3</v>
+      </c>
+      <c r="B613" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" t="s">
+        <v>111</v>
+      </c>
+      <c r="B614" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" t="s">
+        <v>111</v>
+      </c>
+      <c r="B615" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" t="s">
+        <v>111</v>
+      </c>
+      <c r="B616" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" t="s">
+        <v>3</v>
+      </c>
+      <c r="B617" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" t="s">
+        <v>112</v>
+      </c>
+      <c r="B618" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" t="s">
+        <v>112</v>
+      </c>
+      <c r="B619" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" t="s">
+        <v>112</v>
+      </c>
+      <c r="B620" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" t="s">
+        <v>3</v>
+      </c>
+      <c r="B621" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" t="s">
+        <v>113</v>
+      </c>
+      <c r="B622" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" t="s">
+        <v>113</v>
+      </c>
+      <c r="B623" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" t="s">
+        <v>113</v>
+      </c>
+      <c r="B624" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" t="s">
+        <v>113</v>
+      </c>
+      <c r="B625" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" t="s">
+        <v>113</v>
+      </c>
+      <c r="B626" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" t="s">
+        <v>3</v>
+      </c>
+      <c r="B627" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" t="s">
+        <v>114</v>
+      </c>
+      <c r="B628" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" t="s">
+        <v>114</v>
+      </c>
+      <c r="B629" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" t="s">
+        <v>114</v>
+      </c>
+      <c r="B630" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" t="s">
+        <v>3</v>
+      </c>
+      <c r="B631" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" t="s">
+        <v>115</v>
+      </c>
+      <c r="B632" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" t="s">
+        <v>115</v>
+      </c>
+      <c r="B633" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" t="s">
+        <v>115</v>
+      </c>
+      <c r="B634" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" t="s">
+        <v>115</v>
+      </c>
+      <c r="B635" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" t="s">
+        <v>3</v>
+      </c>
+      <c r="B636" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" t="s">
+        <v>116</v>
+      </c>
+      <c r="B637" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" t="s">
+        <v>116</v>
+      </c>
+      <c r="B638" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" t="s">
+        <v>116</v>
+      </c>
+      <c r="B639" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" t="s">
+        <v>116</v>
+      </c>
+      <c r="B640" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" t="s">
+        <v>116</v>
+      </c>
+      <c r="B641" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" t="s">
+        <v>116</v>
+      </c>
+      <c r="B642" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" t="s">
+        <v>116</v>
+      </c>
+      <c r="B643" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" t="s">
+        <v>3</v>
+      </c>
+      <c r="B644" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" t="s">
+        <v>117</v>
+      </c>
+      <c r="B645" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" t="s">
+        <v>117</v>
+      </c>
+      <c r="B646" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" t="s">
+        <v>117</v>
+      </c>
+      <c r="B647" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" t="s">
+        <v>3</v>
+      </c>
+      <c r="B648" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" t="s">
+        <v>118</v>
+      </c>
+      <c r="B649" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" t="s">
+        <v>118</v>
+      </c>
+      <c r="B650" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" t="s">
+        <v>118</v>
+      </c>
+      <c r="B651" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" t="s">
+        <v>118</v>
+      </c>
+      <c r="B652" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" t="s">
+        <v>3</v>
+      </c>
+      <c r="B653" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" t="s">
+        <v>119</v>
+      </c>
+      <c r="B654" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" t="s">
+        <v>119</v>
+      </c>
+      <c r="B655" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" t="s">
+        <v>119</v>
+      </c>
+      <c r="B656" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" t="s">
+        <v>3</v>
+      </c>
+      <c r="B657" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" t="s">
+        <v>120</v>
+      </c>
+      <c r="B658" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" t="s">
+        <v>120</v>
+      </c>
+      <c r="B659" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" t="s">
+        <v>120</v>
+      </c>
+      <c r="B660" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" t="s">
+        <v>120</v>
+      </c>
+      <c r="B661" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" t="s">
+        <v>3</v>
+      </c>
+      <c r="B662" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" t="s">
+        <v>121</v>
+      </c>
+      <c r="B663" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" t="s">
+        <v>121</v>
+      </c>
+      <c r="B664" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" t="s">
+        <v>121</v>
+      </c>
+      <c r="B665" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" t="s">
+        <v>121</v>
+      </c>
+      <c r="B666" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" t="s">
+        <v>121</v>
+      </c>
+      <c r="B667" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" t="s">
+        <v>3</v>
+      </c>
+      <c r="B668" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" t="s">
+        <v>122</v>
+      </c>
+      <c r="B669" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" t="s">
+        <v>122</v>
+      </c>
+      <c r="B670" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" t="s">
+        <v>122</v>
+      </c>
+      <c r="B671" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" t="s">
+        <v>122</v>
+      </c>
+      <c r="B672" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" t="s">
+        <v>122</v>
+      </c>
+      <c r="B673" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" t="s">
+        <v>122</v>
+      </c>
+      <c r="B674" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" t="s">
+        <v>122</v>
+      </c>
+      <c r="B675" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" t="s">
+        <v>122</v>
+      </c>
+      <c r="B676" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" t="s">
+        <v>122</v>
+      </c>
+      <c r="B677" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" t="s">
+        <v>3</v>
+      </c>
+      <c r="B678" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" t="s">
+        <v>123</v>
+      </c>
+      <c r="B679" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" t="s">
+        <v>123</v>
+      </c>
+      <c r="B680" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" t="s">
+        <v>123</v>
+      </c>
+      <c r="B681" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" t="s">
+        <v>3</v>
+      </c>
+      <c r="B682" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" t="s">
+        <v>124</v>
+      </c>
+      <c r="B683" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" t="s">
+        <v>124</v>
+      </c>
+      <c r="B684" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" t="s">
+        <v>124</v>
+      </c>
+      <c r="B685" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" t="s">
+        <v>3</v>
+      </c>
+      <c r="B686" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" t="s">
+        <v>125</v>
+      </c>
+      <c r="B687" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" t="s">
+        <v>125</v>
+      </c>
+      <c r="B688" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" t="s">
+        <v>125</v>
+      </c>
+      <c r="B689" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" t="s">
+        <v>125</v>
+      </c>
+      <c r="B690" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" t="s">
+        <v>3</v>
+      </c>
+      <c r="B691" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" t="s">
+        <v>126</v>
+      </c>
+      <c r="B692" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" t="s">
+        <v>126</v>
+      </c>
+      <c r="B693" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" t="s">
+        <v>126</v>
+      </c>
+      <c r="B694" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" t="s">
+        <v>126</v>
+      </c>
+      <c r="B695" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" t="s">
+        <v>3</v>
+      </c>
+      <c r="B696" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" t="s">
+        <v>127</v>
+      </c>
+      <c r="B697" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" t="s">
+        <v>127</v>
+      </c>
+      <c r="B698" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" t="s">
+        <v>127</v>
+      </c>
+      <c r="B699" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" t="s">
+        <v>127</v>
+      </c>
+      <c r="B700" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" t="s">
+        <v>127</v>
+      </c>
+      <c r="B701" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" t="s">
+        <v>127</v>
+      </c>
+      <c r="B702" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" t="s">
+        <v>3</v>
+      </c>
+      <c r="B703" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" t="s">
+        <v>128</v>
+      </c>
+      <c r="B704" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" t="s">
+        <v>128</v>
+      </c>
+      <c r="B705" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" t="s">
+        <v>128</v>
+      </c>
+      <c r="B706" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" t="s">
+        <v>128</v>
+      </c>
+      <c r="B707" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" t="s">
+        <v>3</v>
+      </c>
+      <c r="B708" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" t="s">
+        <v>129</v>
+      </c>
+      <c r="B709" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" t="s">
+        <v>129</v>
+      </c>
+      <c r="B710" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" t="s">
+        <v>129</v>
+      </c>
+      <c r="B711" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" t="s">
+        <v>129</v>
+      </c>
+      <c r="B712" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" t="s">
+        <v>3</v>
+      </c>
+      <c r="B713" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" t="s">
+        <v>130</v>
+      </c>
+      <c r="B714" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" t="s">
+        <v>130</v>
+      </c>
+      <c r="B715" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" t="s">
+        <v>130</v>
+      </c>
+      <c r="B716" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" t="s">
+        <v>3</v>
+      </c>
+      <c r="B717" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" t="s">
+        <v>131</v>
+      </c>
+      <c r="B718" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" t="s">
+        <v>131</v>
+      </c>
+      <c r="B719" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" t="s">
+        <v>131</v>
+      </c>
+      <c r="B720" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" t="s">
+        <v>131</v>
+      </c>
+      <c r="B721" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" t="s">
+        <v>131</v>
+      </c>
+      <c r="B722" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" t="s">
+        <v>131</v>
+      </c>
+      <c r="B723" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" t="s">
+        <v>3</v>
+      </c>
+      <c r="B724" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" t="s">
+        <v>132</v>
+      </c>
+      <c r="B725" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" t="s">
+        <v>132</v>
+      </c>
+      <c r="B726" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" t="s">
+        <v>132</v>
+      </c>
+      <c r="B727" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" t="s">
+        <v>3</v>
+      </c>
+      <c r="B728" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" t="s">
+        <v>133</v>
+      </c>
+      <c r="B729" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" t="s">
+        <v>133</v>
+      </c>
+      <c r="B730" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" t="s">
+        <v>133</v>
+      </c>
+      <c r="B731" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" t="s">
+        <v>3</v>
+      </c>
+      <c r="B732" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" t="s">
+        <v>134</v>
+      </c>
+      <c r="B733" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" t="s">
+        <v>134</v>
+      </c>
+      <c r="B734" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" t="s">
+        <v>134</v>
+      </c>
+      <c r="B735" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" t="s">
+        <v>3</v>
+      </c>
+      <c r="B736" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" t="s">
+        <v>135</v>
+      </c>
+      <c r="B737" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" t="s">
+        <v>135</v>
+      </c>
+      <c r="B738" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" t="s">
+        <v>135</v>
+      </c>
+      <c r="B739" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" t="s">
+        <v>3</v>
+      </c>
+      <c r="B740" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" t="s">
+        <v>136</v>
+      </c>
+      <c r="B741" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" t="s">
+        <v>136</v>
+      </c>
+      <c r="B742" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" t="s">
+        <v>136</v>
+      </c>
+      <c r="B743" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" t="s">
+        <v>3</v>
+      </c>
+      <c r="B744" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" t="s">
+        <v>137</v>
+      </c>
+      <c r="B745" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" t="s">
+        <v>137</v>
+      </c>
+      <c r="B746" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" t="s">
+        <v>137</v>
+      </c>
+      <c r="B747" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" t="s">
+        <v>137</v>
+      </c>
+      <c r="B748" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" t="s">
+        <v>137</v>
+      </c>
+      <c r="B749" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" t="s">
+        <v>137</v>
+      </c>
+      <c r="B750" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" t="s">
+        <v>137</v>
+      </c>
+      <c r="B751" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" t="s">
+        <v>3</v>
+      </c>
+      <c r="B752" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" t="s">
+        <v>138</v>
+      </c>
+      <c r="B753" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" t="s">
+        <v>138</v>
+      </c>
+      <c r="B754" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" t="s">
+        <v>138</v>
+      </c>
+      <c r="B755" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" t="s">
+        <v>138</v>
+      </c>
+      <c r="B756" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" t="s">
+        <v>138</v>
+      </c>
+      <c r="B757" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" t="s">
+        <v>138</v>
+      </c>
+      <c r="B758" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" t="s">
+        <v>138</v>
+      </c>
+      <c r="B759" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" t="s">
+        <v>138</v>
+      </c>
+      <c r="B760" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" t="s">
+        <v>138</v>
+      </c>
+      <c r="B761" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" t="s">
+        <v>138</v>
+      </c>
+      <c r="B762" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" t="s">
+        <v>138</v>
+      </c>
+      <c r="B763" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" t="s">
+        <v>3</v>
+      </c>
+      <c r="B764" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" t="s">
+        <v>139</v>
+      </c>
+      <c r="B765" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" t="s">
+        <v>139</v>
+      </c>
+      <c r="B766" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" t="s">
+        <v>139</v>
+      </c>
+      <c r="B767" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" t="s">
+        <v>3</v>
+      </c>
+      <c r="B768" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" t="s">
+        <v>140</v>
+      </c>
+      <c r="B769" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" t="s">
+        <v>140</v>
+      </c>
+      <c r="B770" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" t="s">
+        <v>140</v>
+      </c>
+      <c r="B771" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" t="s">
+        <v>3</v>
+      </c>
+      <c r="B772" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" t="s">
+        <v>141</v>
+      </c>
+      <c r="B773" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" t="s">
+        <v>141</v>
+      </c>
+      <c r="B774" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" t="s">
+        <v>141</v>
+      </c>
+      <c r="B775" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" t="s">
+        <v>3</v>
+      </c>
+      <c r="B776" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" t="s">
+        <v>142</v>
+      </c>
+      <c r="B777" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" t="s">
+        <v>142</v>
+      </c>
+      <c r="B778" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" t="s">
+        <v>142</v>
+      </c>
+      <c r="B779" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" t="s">
+        <v>3</v>
+      </c>
+      <c r="B780" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" t="s">
+        <v>143</v>
+      </c>
+      <c r="B781" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" t="s">
+        <v>143</v>
+      </c>
+      <c r="B782" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" t="s">
+        <v>143</v>
+      </c>
+      <c r="B783" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" t="s">
+        <v>3</v>
+      </c>
+      <c r="B784" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" t="s">
+        <v>144</v>
+      </c>
+      <c r="B785" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" t="s">
+        <v>144</v>
+      </c>
+      <c r="B786" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" t="s">
+        <v>3</v>
+      </c>
+      <c r="B787" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" t="s">
+        <v>145</v>
+      </c>
+      <c r="B788" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" t="s">
+        <v>145</v>
+      </c>
+      <c r="B789" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" t="s">
+        <v>145</v>
+      </c>
+      <c r="B790" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" t="s">
+        <v>3</v>
+      </c>
+      <c r="B791" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" t="s">
+        <v>146</v>
+      </c>
+      <c r="B792" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" t="s">
+        <v>146</v>
+      </c>
+      <c r="B793" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" t="s">
+        <v>146</v>
+      </c>
+      <c r="B794" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" t="s">
+        <v>3</v>
+      </c>
+      <c r="B795" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" t="s">
+        <v>147</v>
+      </c>
+      <c r="B796" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" t="s">
+        <v>147</v>
+      </c>
+      <c r="B797" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" t="s">
+        <v>147</v>
+      </c>
+      <c r="B798" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" t="s">
+        <v>3</v>
+      </c>
+      <c r="B799" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" t="s">
+        <v>148</v>
+      </c>
+      <c r="B800" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" t="s">
+        <v>148</v>
+      </c>
+      <c r="B801" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" t="s">
+        <v>148</v>
+      </c>
+      <c r="B802" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" t="s">
+        <v>3</v>
+      </c>
+      <c r="B803" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" t="s">
+        <v>149</v>
+      </c>
+      <c r="B804" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" t="s">
+        <v>149</v>
+      </c>
+      <c r="B805" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" t="s">
+        <v>149</v>
+      </c>
+      <c r="B806" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" t="s">
+        <v>3</v>
+      </c>
+      <c r="B807" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" t="s">
+        <v>150</v>
+      </c>
+      <c r="B808" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" t="s">
+        <v>150</v>
+      </c>
+      <c r="B809" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" t="s">
+        <v>150</v>
+      </c>
+      <c r="B810" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" t="s">
+        <v>150</v>
+      </c>
+      <c r="B811" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" t="s">
+        <v>3</v>
+      </c>
+      <c r="B812" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" t="s">
+        <v>151</v>
+      </c>
+      <c r="B813" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" t="s">
+        <v>151</v>
+      </c>
+      <c r="B814" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" t="s">
+        <v>151</v>
+      </c>
+      <c r="B815" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" t="s">
+        <v>151</v>
+      </c>
+      <c r="B816" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" t="s">
+        <v>3</v>
+      </c>
+      <c r="B817" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" t="s">
+        <v>152</v>
+      </c>
+      <c r="B818" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" t="s">
+        <v>152</v>
+      </c>
+      <c r="B819" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" t="s">
+        <v>152</v>
+      </c>
+      <c r="B820" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" t="s">
+        <v>3</v>
+      </c>
+      <c r="B821" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" t="s">
+        <v>153</v>
+      </c>
+      <c r="B822" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" t="s">
+        <v>153</v>
+      </c>
+      <c r="B823" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" t="s">
+        <v>153</v>
+      </c>
+      <c r="B824" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" t="s">
+        <v>3</v>
+      </c>
+      <c r="B825" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" t="s">
+        <v>154</v>
+      </c>
+      <c r="B826" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827" t="s">
+        <v>154</v>
+      </c>
+      <c r="B827" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828" t="s">
+        <v>154</v>
+      </c>
+      <c r="B828" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" t="s">
+        <v>154</v>
+      </c>
+      <c r="B829" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" t="s">
+        <v>3</v>
+      </c>
+      <c r="B830" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" t="s">
+        <v>155</v>
+      </c>
+      <c r="B831" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" t="s">
+        <v>155</v>
+      </c>
+      <c r="B832" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" t="s">
+        <v>155</v>
+      </c>
+      <c r="B833" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" t="s">
+        <v>3</v>
+      </c>
+      <c r="B834" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" t="s">
+        <v>156</v>
+      </c>
+      <c r="B835" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" t="s">
+        <v>156</v>
+      </c>
+      <c r="B836" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" t="s">
+        <v>156</v>
+      </c>
+      <c r="B837" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" t="s">
+        <v>156</v>
+      </c>
+      <c r="B838" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" t="s">
+        <v>3</v>
+      </c>
+      <c r="B839" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" t="s">
+        <v>157</v>
+      </c>
+      <c r="B840" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="A841" t="s">
+        <v>157</v>
+      </c>
+      <c r="B841" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" t="s">
+        <v>157</v>
+      </c>
+      <c r="B842" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="A843" t="s">
+        <v>157</v>
+      </c>
+      <c r="B843" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" t="s">
+        <v>3</v>
+      </c>
+      <c r="B844" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="A845" t="s">
+        <v>158</v>
+      </c>
+      <c r="B845" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="A846" t="s">
+        <v>158</v>
+      </c>
+      <c r="B846" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" t="s">
+        <v>158</v>
+      </c>
+      <c r="B847" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" t="s">
+        <v>3</v>
+      </c>
+      <c r="B848" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="A849" t="s">
+        <v>159</v>
+      </c>
+      <c r="B849" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" t="s">
+        <v>159</v>
+      </c>
+      <c r="B850" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" t="s">
+        <v>159</v>
+      </c>
+      <c r="B851" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="A852" t="s">
+        <v>3</v>
+      </c>
+      <c r="B852" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" t="s">
+        <v>160</v>
+      </c>
+      <c r="B853" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" t="s">
+        <v>160</v>
+      </c>
+      <c r="B854" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" t="s">
+        <v>160</v>
+      </c>
+      <c r="B855" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" t="s">
+        <v>160</v>
+      </c>
+      <c r="B856" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" t="s">
+        <v>160</v>
+      </c>
+      <c r="B857" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="A858" t="s">
+        <v>3</v>
+      </c>
+      <c r="B858" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="A859" t="s">
+        <v>161</v>
+      </c>
+      <c r="B859" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="A860" t="s">
+        <v>161</v>
+      </c>
+      <c r="B860" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="A861" t="s">
+        <v>161</v>
+      </c>
+      <c r="B861" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="A862" t="s">
+        <v>3</v>
+      </c>
+      <c r="B862" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="A863" t="s">
+        <v>162</v>
+      </c>
+      <c r="B863" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" t="s">
+        <v>162</v>
+      </c>
+      <c r="B864" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2">
+      <c r="A865" t="s">
+        <v>162</v>
+      </c>
+      <c r="B865" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2">
+      <c r="A866" t="s">
+        <v>3</v>
+      </c>
+      <c r="B866" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="A867" t="s">
+        <v>163</v>
+      </c>
+      <c r="B867" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="A868" t="s">
+        <v>163</v>
+      </c>
+      <c r="B868" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2">
+      <c r="A869" t="s">
+        <v>163</v>
+      </c>
+      <c r="B869" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2">
+      <c r="A870" t="s">
+        <v>163</v>
+      </c>
+      <c r="B870" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2">
+      <c r="A871" t="s">
+        <v>3</v>
+      </c>
+      <c r="B871" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
